--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F8547-5397-480E-B099-64BE9FC1DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C2BDF-9213-4E99-B8B6-19DEA550C835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9489,8 +9489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10055,7 +10055,9 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="4">
+        <v>45006</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
       <c r="A61" s="1">
@@ -10064,7 +10066,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10073,7 +10075,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10082,7 +10084,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10091,7 +10093,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10100,7 +10102,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -36527,7 +36529,8 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C60:C65"/>
     <mergeCell ref="C54:C59"/>
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="C45:C47"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C2BDF-9213-4E99-B8B6-19DEA550C835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7677C-59BE-4179-8FA1-11FEDACDED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9490,7 +9490,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B65"/>
+      <selection activeCell="B66" sqref="B66:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10111,7 +10111,9 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="4">
+        <v>45007</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
       <c r="A67" s="1">
@@ -10120,7 +10122,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10129,7 +10131,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10138,7 +10140,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10147,7 +10149,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10156,7 +10158,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -36529,7 +36531,8 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="C66:C71"/>
     <mergeCell ref="C60:C65"/>
     <mergeCell ref="C54:C59"/>
     <mergeCell ref="C48:C53"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7677C-59BE-4179-8FA1-11FEDACDED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572CB5F8-DEAC-4946-9A22-B4DEF592C839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9150,11 +9150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9165,13 +9167,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9489,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9517,7 +9528,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>44997</v>
       </c>
     </row>
@@ -9528,7 +9539,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9537,7 +9548,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9546,7 +9557,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9555,7 +9566,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9564,7 +9575,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9573,7 +9584,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9582,7 +9593,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9591,7 +9602,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9600,7 +9611,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9609,7 +9620,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>44998</v>
       </c>
     </row>
@@ -9620,7 +9631,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9629,7 +9640,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9638,7 +9649,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9647,7 +9658,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9656,7 +9667,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9665,7 +9676,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9674,7 +9685,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9683,7 +9694,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9692,7 +9703,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9701,7 +9712,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>44999</v>
       </c>
     </row>
@@ -9712,7 +9723,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9721,7 +9732,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9730,7 +9741,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9739,7 +9750,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9748,7 +9759,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9757,7 +9768,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9766,7 +9777,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9775,7 +9786,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9784,7 +9795,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9793,7 +9804,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="10">
         <v>45000</v>
       </c>
     </row>
@@ -9804,7 +9815,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9813,7 +9824,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9822,7 +9833,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9831,7 +9842,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9840,7 +9851,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9849,7 +9860,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9858,7 +9869,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9867,7 +9878,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9876,7 +9887,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9885,7 +9896,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="10">
         <v>45001</v>
       </c>
     </row>
@@ -9896,7 +9907,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9905,7 +9916,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9914,7 +9925,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>45002</v>
       </c>
     </row>
@@ -9925,7 +9936,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9934,7 +9945,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9943,7 +9954,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="7">
         <v>45004</v>
       </c>
     </row>
@@ -9954,7 +9965,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9963,7 +9974,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9972,7 +9983,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -9981,7 +9992,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -9990,7 +10001,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -9999,7 +10010,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="7">
         <v>45005</v>
       </c>
     </row>
@@ -10010,7 +10021,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10019,7 +10030,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10028,7 +10039,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10037,7 +10048,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10046,7 +10057,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10055,7 +10066,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="7">
         <v>45006</v>
       </c>
     </row>
@@ -10066,7 +10077,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10075,7 +10086,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10084,7 +10095,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10093,7 +10104,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10102,7 +10113,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10111,7 +10122,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="7">
         <v>45007</v>
       </c>
     </row>
@@ -10122,7 +10133,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10131,7 +10142,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10140,7 +10151,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10149,7 +10160,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10158,7 +10169,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10167,7 +10178,9 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="1">
@@ -10176,7 +10189,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10185,7 +10198,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10194,7 +10207,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10203,7 +10216,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10212,7 +10225,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10221,7 +10234,9 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="7">
+        <v>45009</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="1">
@@ -10230,7 +10245,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10239,7 +10254,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10248,7 +10263,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10257,7 +10272,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10266,7 +10281,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10275,7 +10290,9 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="4">
+        <v>45011</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="1">
@@ -10284,7 +10301,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10293,7 +10310,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10302,7 +10319,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10311,7 +10328,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10320,7 +10337,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10329,7 +10346,9 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="4">
+        <v>45012</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
       <c r="A91" s="1">
@@ -10338,7 +10357,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10347,7 +10366,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10356,7 +10375,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10365,7 +10384,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10374,7 +10393,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10383,7 +10402,9 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="4">
+        <v>45013</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
       <c r="A97" s="1">
@@ -10392,7 +10413,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10401,7 +10422,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10410,7 +10431,9 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="4">
+        <v>45014</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="15.75">
       <c r="A100" s="1">
@@ -10419,7 +10442,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10428,7 +10451,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10437,7 +10460,9 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="4">
+        <v>45015</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="15.75">
       <c r="A103" s="1">
@@ -10446,7 +10471,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10455,7 +10480,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -36531,17 +36556,24 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
+  <mergeCells count="17">
+    <mergeCell ref="C102:C104"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="C22:C31"/>
     <mergeCell ref="C32:C41"/>
     <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C72:C77"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572CB5F8-DEAC-4946-9A22-B4DEF592C839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCFB2B6-E03D-416F-A40F-80EA775573B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9500,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10489,7 +10489,9 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="4">
+        <v>45016</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
       <c r="A106" s="1">
@@ -10498,7 +10500,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10507,7 +10509,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -36556,7 +36558,9 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C2:C11"/>
@@ -36573,7 +36577,6 @@
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C72:C77"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCFB2B6-E03D-416F-A40F-80EA775573B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4082BEF-110A-475A-829C-2DA0FE9E83AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9158,6 +9158,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9165,15 +9174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9501,7 +9501,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B107"/>
+      <selection activeCell="B108" sqref="B108:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9528,7 +9528,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>44997</v>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9548,7 +9548,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9557,7 +9557,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9566,7 +9566,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9575,7 +9575,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9584,7 +9584,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9593,7 +9593,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9602,7 +9602,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9611,7 +9611,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9620,7 +9620,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>44998</v>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9640,7 +9640,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9649,7 +9649,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9658,7 +9658,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9667,7 +9667,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9676,7 +9676,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9685,7 +9685,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9694,7 +9694,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9703,7 +9703,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9712,7 +9712,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>44999</v>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9732,7 +9732,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9741,7 +9741,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9750,7 +9750,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9759,7 +9759,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9768,7 +9768,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9777,7 +9777,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9786,7 +9786,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9795,7 +9795,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9925,7 +9925,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>45002</v>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9945,7 +9945,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9954,7 +9954,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>45004</v>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9974,7 +9974,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9983,7 +9983,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -9992,7 +9992,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10001,7 +10001,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10010,7 +10010,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>45005</v>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10030,7 +10030,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10039,7 +10039,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10048,7 +10048,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10057,7 +10057,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10066,7 +10066,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>45006</v>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10086,7 +10086,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10095,7 +10095,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10104,7 +10104,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10113,7 +10113,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10122,7 +10122,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>45007</v>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10142,7 +10142,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10151,7 +10151,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="8"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10160,7 +10160,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10169,7 +10169,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10178,7 +10178,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>45008</v>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="8"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10198,7 +10198,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10207,7 +10207,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10216,7 +10216,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10225,7 +10225,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10234,7 +10234,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>45009</v>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10254,7 +10254,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10263,7 +10263,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="8"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10272,7 +10272,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10281,7 +10281,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10290,7 +10290,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="7">
         <v>45011</v>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10310,7 +10310,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10319,7 +10319,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10328,7 +10328,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10337,7 +10337,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10346,7 +10346,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="7">
         <v>45012</v>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10366,7 +10366,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10375,7 +10375,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10384,7 +10384,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10393,7 +10393,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10402,7 +10402,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="7">
         <v>45013</v>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10422,7 +10422,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10431,7 +10431,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="7">
         <v>45014</v>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10451,7 +10451,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10460,7 +10460,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="7">
         <v>45015</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10480,7 +10480,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10489,7 +10489,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="7">
         <v>45016</v>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="5"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10509,7 +10509,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10518,7 +10518,9 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="7">
+        <v>45019</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
       <c r="A109" s="1">
@@ -10527,7 +10529,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10536,7 +10538,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -36558,7 +36560,10 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C108:C110"/>
     <mergeCell ref="C72:C77"/>
     <mergeCell ref="C105:C107"/>
     <mergeCell ref="C102:C104"/>
@@ -36575,8 +36580,6 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4082BEF-110A-475A-829C-2DA0FE9E83AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB17DC-A8FB-44FE-B32D-3E87E2CDA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9158,6 +9158,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9165,15 +9174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9501,7 +9501,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B110"/>
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9528,7 +9528,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>44997</v>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9548,7 +9548,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9557,7 +9557,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9566,7 +9566,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9575,7 +9575,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9584,7 +9584,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9593,7 +9593,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9602,7 +9602,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9611,7 +9611,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9620,7 +9620,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>44998</v>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9640,7 +9640,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9649,7 +9649,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9658,7 +9658,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9667,7 +9667,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9676,7 +9676,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9685,7 +9685,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9694,7 +9694,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9703,7 +9703,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9712,7 +9712,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>44999</v>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9732,7 +9732,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9741,7 +9741,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9750,7 +9750,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9759,7 +9759,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9768,7 +9768,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9777,7 +9777,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9786,7 +9786,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9795,7 +9795,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9925,7 +9925,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>45002</v>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9945,7 +9945,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9954,7 +9954,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="7">
         <v>45004</v>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9974,7 +9974,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9983,7 +9983,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -9992,7 +9992,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10001,7 +10001,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10010,7 +10010,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="7">
         <v>45005</v>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10030,7 +10030,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10039,7 +10039,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10048,7 +10048,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10057,7 +10057,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10066,7 +10066,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="7">
         <v>45006</v>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10086,7 +10086,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10095,7 +10095,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10104,7 +10104,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10113,7 +10113,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10122,7 +10122,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="7">
         <v>45007</v>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10142,7 +10142,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10151,7 +10151,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10160,7 +10160,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10169,7 +10169,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10178,7 +10178,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="7">
         <v>45008</v>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10198,7 +10198,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10207,7 +10207,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10216,7 +10216,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10225,7 +10225,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10234,7 +10234,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="7">
         <v>45009</v>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10254,7 +10254,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10263,7 +10263,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10272,7 +10272,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10281,7 +10281,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10290,7 +10290,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="4">
         <v>45011</v>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="8"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10310,7 +10310,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10319,7 +10319,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="8"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10328,7 +10328,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="8"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10337,7 +10337,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10346,7 +10346,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="4">
         <v>45012</v>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10366,7 +10366,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="8"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10375,7 +10375,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="8"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10384,7 +10384,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10393,7 +10393,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10402,7 +10402,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="4">
         <v>45013</v>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10422,7 +10422,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10431,7 +10431,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="4">
         <v>45014</v>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10451,7 +10451,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10460,7 +10460,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="4">
         <v>45015</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10480,7 +10480,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10489,7 +10489,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="4">
         <v>45016</v>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10509,7 +10509,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10518,7 +10518,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="4">
         <v>45019</v>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="8"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10538,7 +10538,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="6"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10547,7 +10547,9 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="4">
+        <v>45020</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="15.75">
       <c r="A112" s="1">
@@ -10556,7 +10558,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10565,7 +10567,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -36560,26 +36562,27 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C78:C83"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="C72:C77"/>
     <mergeCell ref="C105:C107"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB17DC-A8FB-44FE-B32D-3E87E2CDA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B1EA0-5512-4605-AB33-ADE725875460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9500,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10576,7 +10576,9 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="15.75">
       <c r="A115" s="1">
@@ -10585,7 +10587,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10594,7 +10596,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10603,7 +10605,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10612,7 +10614,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10621,7 +10623,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10630,7 +10632,9 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="4">
+        <v>45026</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="15.75">
       <c r="A121" s="1">
@@ -10639,7 +10643,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10648,7 +10652,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="1"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10657,7 +10661,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10666,7 +10670,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="1"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10675,7 +10679,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="1"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -36562,7 +36566,15 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="C66:C71"/>
     <mergeCell ref="C60:C65"/>
@@ -36570,12 +36582,6 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C78:C83"/>
     <mergeCell ref="C108:C110"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIT\ingles\arquivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B1EA0-5512-4605-AB33-ADE725875460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E48D71-A21E-4DE0-A2F7-6FC51381A510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9500,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10688,7 +10688,9 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="4">
+        <v>45027</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="15.75">
       <c r="A127" s="1">
@@ -10697,7 +10699,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="1"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10706,7 +10708,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="1"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10715,7 +10717,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="1"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10724,7 +10726,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10733,7 +10735,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10742,7 +10744,9 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="1"/>
+      <c r="C132" s="4">
+        <v>45028</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="15.75">
       <c r="A133" s="1">
@@ -10751,7 +10755,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10760,7 +10764,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -36566,7 +36570,15 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C120:C125"/>
     <mergeCell ref="C45:C47"/>
@@ -36583,12 +36595,6 @@
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E48D71-A21E-4DE0-A2F7-6FC51381A510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B95EF-1B86-4A10-B99E-6F472DA649AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9051,7 +9051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9067,6 +9067,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="EF Circular Latin"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF191919"/>
       <name val="EF Circular Latin"/>
@@ -9150,7 +9156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9184,6 +9190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9500,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10770,28 +10777,30 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="4">
+        <v>45029</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="15.75">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -36570,7 +36579,21 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C126:C131"/>
     <mergeCell ref="C132:C134"/>
     <mergeCell ref="C78:C83"/>
@@ -36581,20 +36604,7 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B95EF-1B86-4A10-B99E-6F472DA649AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684379CC-A8D3-487E-A36D-2CF6B779CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9163,6 +9163,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9190,7 +9191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9507,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B137"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9535,7 +9535,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>44997</v>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9555,7 +9555,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9564,7 +9564,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9573,7 +9573,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9582,7 +9582,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9591,7 +9591,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9600,7 +9600,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9609,7 +9609,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9618,7 +9618,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9627,7 +9627,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>44998</v>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9647,7 +9647,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9656,7 +9656,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9665,7 +9665,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9674,7 +9674,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9683,7 +9683,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9692,7 +9692,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9701,7 +9701,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9710,7 +9710,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9719,7 +9719,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>44999</v>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9739,7 +9739,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9748,7 +9748,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9757,7 +9757,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9766,7 +9766,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9775,7 +9775,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9784,7 +9784,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9793,7 +9793,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9802,7 +9802,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9811,7 +9811,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11">
         <v>45000</v>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9831,7 +9831,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9840,7 +9840,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9849,7 +9849,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9858,7 +9858,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9867,7 +9867,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9876,7 +9876,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9885,7 +9885,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9894,7 +9894,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9903,7 +9903,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="11">
         <v>45001</v>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9923,7 +9923,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9932,7 +9932,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>45002</v>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9952,7 +9952,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9961,7 +9961,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>45004</v>
       </c>
     </row>
@@ -9972,7 +9972,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9981,7 +9981,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9990,7 +9990,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -9999,7 +9999,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10008,7 +10008,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10017,7 +10017,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>45005</v>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10037,7 +10037,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10046,7 +10046,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10055,7 +10055,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10064,7 +10064,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10073,7 +10073,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>45006</v>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10093,7 +10093,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10102,7 +10102,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10111,7 +10111,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10120,7 +10120,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10129,7 +10129,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>45007</v>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10149,7 +10149,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10158,7 +10158,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10167,7 +10167,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10176,7 +10176,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10185,7 +10185,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>45008</v>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10205,7 +10205,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10214,7 +10214,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10223,7 +10223,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10232,7 +10232,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10241,7 +10241,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>45009</v>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10261,7 +10261,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10270,7 +10270,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10279,7 +10279,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10288,7 +10288,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10297,7 +10297,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="5">
         <v>45011</v>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10317,7 +10317,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10326,7 +10326,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10335,7 +10335,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10344,7 +10344,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10353,7 +10353,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="5">
         <v>45012</v>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10373,7 +10373,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10382,7 +10382,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10391,7 +10391,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10400,7 +10400,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10409,7 +10409,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5">
         <v>45013</v>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10429,7 +10429,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10438,7 +10438,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="5">
         <v>45014</v>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10458,7 +10458,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10467,7 +10467,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="5">
         <v>45015</v>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="6"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10487,7 +10487,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10496,7 +10496,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="5">
         <v>45016</v>
       </c>
     </row>
@@ -10507,7 +10507,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="5"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10516,7 +10516,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10525,7 +10525,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="5">
         <v>45019</v>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10545,7 +10545,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10554,7 +10554,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="5">
         <v>45020</v>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="5"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10574,7 +10574,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="6"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10583,7 +10583,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="5">
         <v>45023</v>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10603,7 +10603,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="5"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10612,7 +10612,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="5"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10621,7 +10621,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="5"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10630,7 +10630,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10639,7 +10639,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="5">
         <v>45026</v>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="5"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10659,7 +10659,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="6"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10668,7 +10668,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="5"/>
+      <c r="C123" s="6"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10677,7 +10677,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="5"/>
+      <c r="C124" s="6"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10686,7 +10686,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10695,7 +10695,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="5">
         <v>45027</v>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="5"/>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10715,7 +10715,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10724,7 +10724,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="6"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10733,7 +10733,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="5"/>
+      <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10742,7 +10742,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="6"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10751,7 +10751,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="5">
         <v>45028</v>
       </c>
     </row>
@@ -10762,7 +10762,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="5"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10771,16 +10771,16 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="6"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="5">
         <v>45029</v>
       </c>
     </row>
@@ -10788,19 +10788,19 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="5"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="6"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10809,7 +10809,9 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="5">
+        <v>45030</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="15.75">
       <c r="A139" s="1">
@@ -10818,7 +10820,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10827,7 +10829,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10836,7 +10838,9 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="5">
+        <v>45031</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="15.75">
       <c r="A142" s="1">
@@ -10845,7 +10849,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10854,7 +10858,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10863,7 +10867,9 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="5">
+        <v>45062</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="15.75">
       <c r="A145" s="1">
@@ -10872,7 +10878,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="1"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10881,7 +10887,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -36579,7 +36585,19 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C135:C137"/>
     <mergeCell ref="C66:C71"/>
     <mergeCell ref="C60:C65"/>
@@ -36588,12 +36606,6 @@
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C126:C131"/>
     <mergeCell ref="C132:C134"/>
     <mergeCell ref="C78:C83"/>
@@ -36602,9 +36614,6 @@
     <mergeCell ref="C105:C107"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684379CC-A8D3-487E-A36D-2CF6B779CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E0C85-A2AA-4F49-A6A4-3ADD3EBDF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9507,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:B146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10896,7 +10896,9 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="1"/>
+      <c r="C147" s="5">
+        <v>45063</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="15.75">
       <c r="A148" s="1">
@@ -10905,7 +10907,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10914,7 +10916,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -36585,20 +36587,13 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C135:C137"/>
+  <mergeCells count="29">
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C66:C71"/>
     <mergeCell ref="C60:C65"/>
     <mergeCell ref="C54:C59"/>
@@ -36606,14 +36601,22 @@
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
     <mergeCell ref="C126:C131"/>
     <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E0C85-A2AA-4F49-A6A4-3ADD3EBDF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E3E89-8892-4FE0-A07A-B679AE8C0F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9507,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147:B149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10868,7 +10868,7 @@
         <v>128</v>
       </c>
       <c r="C144" s="5">
-        <v>45062</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75">
@@ -10897,7 +10897,7 @@
         <v>131</v>
       </c>
       <c r="C147" s="5">
-        <v>45063</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75">
@@ -10925,7 +10925,9 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="1"/>
+      <c r="C150" s="5">
+        <v>45034</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15.75">
       <c r="A151" s="1">
@@ -10934,7 +10936,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -10943,7 +10945,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="1"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -36587,13 +36589,14 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
+  <mergeCells count="30">
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C66:C71"/>
     <mergeCell ref="C60:C65"/>
     <mergeCell ref="C54:C59"/>
@@ -36602,12 +36605,12 @@
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C120:C125"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E3E89-8892-4FE0-A07A-B679AE8C0F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45706FED-ECF4-4255-A8F7-0F8B992000B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9508,7 +9508,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:B152"/>
+      <selection activeCell="B153" sqref="B153:B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10954,7 +10954,9 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="1"/>
+      <c r="C153" s="5">
+        <v>45035</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15.75">
       <c r="A154" s="1">
@@ -10963,7 +10965,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="1"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -10972,7 +10974,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="1"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -36589,7 +36591,22 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C2:C11"/>
@@ -36606,20 +36623,6 @@
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C78:C83"/>
     <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45706FED-ECF4-4255-A8F7-0F8B992000B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1506C2-8DEE-4D47-92CA-9BDEC28E38C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9156,7 +9156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9190,6 +9190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9507,8 +9510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:C3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153:B155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10983,7 +10986,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="1"/>
+      <c r="C156" s="14"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -10992,7 +10995,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="1"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11001,7 +11004,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="1"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11010,7 +11013,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="14"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11019,7 +11022,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11028,7 +11031,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11037,7 +11040,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="14"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11046,7 +11049,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11055,7 +11058,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="1"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11064,7 +11067,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11073,7 +11076,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="1"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11082,7 +11085,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11091,7 +11094,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="14"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11100,7 +11103,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="1"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11109,7 +11112,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="1"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11118,7 +11121,9 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="1"/>
+      <c r="C171" s="5">
+        <v>45041</v>
+      </c>
     </row>
     <row r="172" spans="1:3" ht="15.75">
       <c r="A172" s="1">
@@ -11127,7 +11132,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="6"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11136,7 +11141,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -36591,7 +36596,32 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="37">
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C114:C119"/>
@@ -36602,26 +36632,7 @@
     <mergeCell ref="C135:C137"/>
     <mergeCell ref="C126:C131"/>
     <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
     <mergeCell ref="C147:C149"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1506C2-8DEE-4D47-92CA-9BDEC28E38C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33764461-64F1-4495-8EC0-86E6046A97FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9051,7 +9051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9075,6 +9075,26 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF191919"/>
+      <name val="EF Circular Latin"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="EF Circular Latin"/>
     </font>
   </fonts>
@@ -9156,7 +9176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9171,6 +9191,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9191,9 +9214,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9508,10 +9531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
-  <dimension ref="A1:C3001"/>
+  <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156:B173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9538,7 +9561,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>44997</v>
       </c>
     </row>
@@ -9549,7 +9572,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9558,7 +9581,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9567,7 +9590,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9576,7 +9599,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9585,7 +9608,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9594,7 +9617,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9603,7 +9626,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9612,7 +9635,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9621,7 +9644,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9630,7 +9653,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>44998</v>
       </c>
     </row>
@@ -9641,7 +9664,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9650,7 +9673,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9659,7 +9682,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9668,7 +9691,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9677,7 +9700,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9686,7 +9709,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9695,7 +9718,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9704,7 +9727,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9713,7 +9736,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9722,7 +9745,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>44999</v>
       </c>
     </row>
@@ -9733,7 +9756,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9742,7 +9765,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9751,7 +9774,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9760,7 +9783,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9769,7 +9792,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9778,7 +9801,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9787,7 +9810,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9796,7 +9819,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9805,7 +9828,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9814,7 +9837,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>45000</v>
       </c>
     </row>
@@ -9825,7 +9848,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9834,7 +9857,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9843,7 +9866,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9852,7 +9875,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9861,7 +9884,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9870,7 +9893,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9879,7 +9902,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9888,7 +9911,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9897,7 +9920,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9906,7 +9929,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>45001</v>
       </c>
     </row>
@@ -9917,7 +9940,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9926,7 +9949,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9935,7 +9958,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>45002</v>
       </c>
     </row>
@@ -9946,7 +9969,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9955,7 +9978,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9964,7 +9987,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>45004</v>
       </c>
     </row>
@@ -9975,7 +9998,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -9984,7 +10007,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -9993,7 +10016,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10002,7 +10025,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10011,7 +10034,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10020,7 +10043,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>45005</v>
       </c>
     </row>
@@ -10031,7 +10054,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10040,7 +10063,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10049,7 +10072,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10058,7 +10081,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10067,7 +10090,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10076,7 +10099,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>45006</v>
       </c>
     </row>
@@ -10087,7 +10110,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10096,7 +10119,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10105,7 +10128,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10114,7 +10137,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10123,7 +10146,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10132,7 +10155,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>45007</v>
       </c>
     </row>
@@ -10143,7 +10166,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10152,7 +10175,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10161,7 +10184,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10170,7 +10193,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10179,7 +10202,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10188,7 +10211,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>45008</v>
       </c>
     </row>
@@ -10199,7 +10222,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10208,7 +10231,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="9"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10217,7 +10240,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10226,7 +10249,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10235,7 +10258,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10244,7 +10267,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>45009</v>
       </c>
     </row>
@@ -10255,7 +10278,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10264,7 +10287,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10273,7 +10296,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10282,7 +10305,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10291,7 +10314,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10986,7 +11009,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="14"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11013,7 +11036,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="14"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11040,7 +11063,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="14"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11067,7 +11090,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="14"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11094,7 +11117,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="14"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11150,7 +11173,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11159,7 +11182,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11168,63 +11191,65 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" ht="15.75">
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" ht="15.75">
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" ht="15.75">
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" ht="15.75">
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" ht="15.75">
+      <c r="C180" s="5">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15.75">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" ht="15.75">
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" ht="15.75">
+      <c r="C182" s="7"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -11233,7 +11258,7 @@
       </c>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" ht="15.75">
+    <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -11242,7 +11267,7 @@
       </c>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" ht="15.75">
+    <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -11251,7 +11276,7 @@
       </c>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" ht="15.75">
+    <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -11260,7 +11285,7 @@
       </c>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" ht="15.75">
+    <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -11269,7 +11294,7 @@
       </c>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" ht="15.75">
+    <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -11277,8 +11302,9 @@
         <v>169</v>
       </c>
       <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:3" ht="15.75">
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -11287,7 +11313,7 @@
       </c>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" ht="15.75">
+    <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -11296,7 +11322,7 @@
       </c>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75">
+    <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -11305,7 +11331,7 @@
       </c>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75">
+    <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -11585,13 +11611,13 @@
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
-      <c r="A223" s="1">
+      <c r="A223" s="16">
         <v>222</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="1"/>
+      <c r="C223" s="16"/>
     </row>
     <row r="224" spans="1:3" ht="15.75">
       <c r="A224" s="1">
@@ -36596,32 +36622,10 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
+  <mergeCells count="40">
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C182"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C114:C119"/>
@@ -36634,6 +36638,31 @@
     <mergeCell ref="C132:C134"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33764461-64F1-4495-8EC0-86E6046A97FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8662A9-355E-4049-9AA3-937098457585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9184,7 +9184,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9193,7 +9196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9214,9 +9217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9561,7 +9561,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>44997</v>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9581,7 +9581,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9590,7 +9590,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9599,7 +9599,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9608,7 +9608,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9617,7 +9617,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9626,7 +9626,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9635,7 +9635,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9644,7 +9644,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9653,7 +9653,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>44998</v>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9673,7 +9673,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9682,7 +9682,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9691,7 +9691,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9700,7 +9700,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9709,7 +9709,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9718,7 +9718,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9727,7 +9727,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9736,7 +9736,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9745,7 +9745,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="12">
         <v>44999</v>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9765,7 +9765,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9774,7 +9774,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9783,7 +9783,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9792,7 +9792,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9801,7 +9801,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9810,7 +9810,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9819,7 +9819,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9828,7 +9828,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9837,7 +9837,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="15">
         <v>45000</v>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9857,7 +9857,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9866,7 +9866,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9875,7 +9875,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9884,7 +9884,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9893,7 +9893,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9902,7 +9902,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9911,7 +9911,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9920,7 +9920,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9929,7 +9929,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="15">
         <v>45001</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9949,7 +9949,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9958,7 +9958,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="12">
         <v>45002</v>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9978,7 +9978,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9987,7 +9987,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="12">
         <v>45004</v>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10007,7 +10007,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10016,7 +10016,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10025,7 +10025,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10034,7 +10034,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10043,7 +10043,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="12">
         <v>45005</v>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10063,7 +10063,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10072,7 +10072,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10081,7 +10081,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10090,7 +10090,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10099,7 +10099,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12">
         <v>45006</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10119,7 +10119,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10128,7 +10128,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10137,7 +10137,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10146,7 +10146,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10155,7 +10155,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="12">
         <v>45007</v>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10175,7 +10175,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10184,7 +10184,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10193,7 +10193,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10202,7 +10202,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10211,7 +10211,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="12">
         <v>45008</v>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10231,7 +10231,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10240,7 +10240,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10249,7 +10249,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10258,7 +10258,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10267,7 +10267,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="12">
         <v>45009</v>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10287,7 +10287,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10296,7 +10296,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10305,7 +10305,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10314,7 +10314,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="11"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10323,7 +10323,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="11">
         <v>45011</v>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10343,7 +10343,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10352,7 +10352,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10361,7 +10361,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10370,7 +10370,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10379,7 +10379,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="11">
         <v>45012</v>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10399,7 +10399,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10408,7 +10408,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10417,7 +10417,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10426,7 +10426,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10435,7 +10435,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="11">
         <v>45013</v>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10455,7 +10455,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="7"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10464,7 +10464,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="11">
         <v>45014</v>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10484,7 +10484,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="7"/>
+      <c r="C101" s="10"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10493,7 +10493,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="11">
         <v>45015</v>
       </c>
     </row>
@@ -10504,7 +10504,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10513,7 +10513,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="7"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10522,7 +10522,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="11">
         <v>45016</v>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10542,7 +10542,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10551,7 +10551,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="11">
         <v>45019</v>
       </c>
     </row>
@@ -10562,7 +10562,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="6"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10571,7 +10571,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="7"/>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10580,7 +10580,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="11">
         <v>45020</v>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10600,7 +10600,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10609,7 +10609,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="11">
         <v>45023</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10629,7 +10629,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="6"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10638,7 +10638,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10647,7 +10647,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10656,7 +10656,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="7"/>
+      <c r="C119" s="10"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10665,7 +10665,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="11">
         <v>45026</v>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10685,7 +10685,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="6"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10694,7 +10694,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="6"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10703,7 +10703,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="6"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10712,7 +10712,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="7"/>
+      <c r="C125" s="10"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10721,7 +10721,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="11">
         <v>45027</v>
       </c>
     </row>
@@ -10732,7 +10732,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="6"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10741,7 +10741,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="6"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10750,7 +10750,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="6"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10759,7 +10759,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10768,7 +10768,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="7"/>
+      <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10777,7 +10777,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="11">
         <v>45028</v>
       </c>
     </row>
@@ -10788,7 +10788,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="6"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10797,7 +10797,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="10"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -10806,7 +10806,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="11">
         <v>45029</v>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
       <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
@@ -10826,7 +10826,7 @@
       <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="7"/>
+      <c r="C137" s="10"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10835,7 +10835,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="11">
         <v>45030</v>
       </c>
     </row>
@@ -10846,7 +10846,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="6"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10855,7 +10855,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="7"/>
+      <c r="C140" s="10"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10864,7 +10864,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="11">
         <v>45031</v>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="6"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10884,7 +10884,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="7"/>
+      <c r="C143" s="10"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10893,7 +10893,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="11">
         <v>45032</v>
       </c>
     </row>
@@ -10904,7 +10904,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="6"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10913,7 +10913,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="7"/>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -10922,7 +10922,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="11">
         <v>45033</v>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="6"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10942,7 +10942,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="7"/>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -10951,7 +10951,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="11">
         <v>45034</v>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -10971,7 +10971,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="7"/>
+      <c r="C152" s="10"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -10980,7 +10980,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="11">
         <v>45035</v>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="6"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -11000,7 +11000,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="7"/>
+      <c r="C155" s="10"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -11018,7 +11018,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11027,7 +11027,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="7"/>
+      <c r="C158" s="10"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11045,7 +11045,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="6"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11054,7 +11054,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="7"/>
+      <c r="C161" s="10"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11072,7 +11072,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11081,7 +11081,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="7"/>
+      <c r="C164" s="10"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11099,7 +11099,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="6"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11108,7 +11108,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="7"/>
+      <c r="C167" s="10"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11126,7 +11126,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="6"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11135,7 +11135,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="7"/>
+      <c r="C170" s="10"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11144,7 +11144,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="11">
         <v>45041</v>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="6"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11164,7 +11164,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="7"/>
+      <c r="C173" s="10"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -11182,7 +11182,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="6"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11191,7 +11191,7 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="7"/>
+      <c r="C176" s="10"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
@@ -11209,7 +11209,7 @@
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="6"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
@@ -11218,7 +11218,7 @@
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="7"/>
+      <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
@@ -11227,7 +11227,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="11">
         <v>45044</v>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="6"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
@@ -11247,7 +11247,7 @@
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="7"/>
+      <c r="C182" s="10"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
@@ -11256,7 +11256,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11265,7 +11265,7 @@
       <c r="B184" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
@@ -11274,7 +11274,7 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" s="10"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
@@ -11283,7 +11283,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="1"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11292,7 +11292,7 @@
       <c r="B187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
@@ -11301,8 +11301,8 @@
       <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="1"/>
-      <c r="H188" s="15"/>
+      <c r="C188" s="10"/>
+      <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="1">
@@ -11311,7 +11311,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="1"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11320,7 +11320,7 @@
       <c r="B190" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
@@ -11329,7 +11329,7 @@
       <c r="B191" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="10"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
@@ -11338,7 +11338,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11347,7 +11347,7 @@
       <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" ht="15.75">
       <c r="A194" s="1">
@@ -11356,7 +11356,7 @@
       <c r="B194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="10"/>
     </row>
     <row r="195" spans="1:3" ht="15.75">
       <c r="A195" s="1">
@@ -11365,7 +11365,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="1"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11374,7 +11374,7 @@
       <c r="B196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="1">
@@ -11383,7 +11383,7 @@
       <c r="B197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="10"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="1">
@@ -11392,7 +11392,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11401,7 +11401,7 @@
       <c r="B199" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="1">
@@ -11410,7 +11410,7 @@
       <c r="B200" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="10"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="1">
@@ -11419,7 +11419,9 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="11">
+        <v>45051</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="15.75">
       <c r="A202" s="1">
@@ -11428,7 +11430,7 @@
       <c r="B202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="1">
@@ -11437,7 +11439,7 @@
       <c r="B203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="1">
@@ -11611,13 +11613,13 @@
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
-      <c r="A223" s="16">
+      <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="17" t="s">
+      <c r="B223" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="16"/>
+      <c r="C223" s="6"/>
     </row>
     <row r="224" spans="1:3" ht="15.75">
       <c r="A224" s="1">
@@ -36622,12 +36624,33 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C144:C146"/>
+  <mergeCells count="47">
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C120:C125"/>
     <mergeCell ref="C111:C113"/>
@@ -36636,27 +36659,13 @@
     <mergeCell ref="C135:C137"/>
     <mergeCell ref="C126:C131"/>
     <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
     <mergeCell ref="C171:C173"/>
     <mergeCell ref="C156:C158"/>
     <mergeCell ref="C159:C161"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8662A9-355E-4049-9AA3-937098457585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD76A3-3B94-4653-AC2C-3C6F07F3A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -9187,16 +9187,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9216,6 +9213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183:B203"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="M203" sqref="M203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9561,7 +9561,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>44997</v>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9581,7 +9581,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9590,7 +9590,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9599,7 +9599,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9608,7 +9608,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9617,7 +9617,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9626,7 +9626,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9635,7 +9635,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9644,7 +9644,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9653,7 +9653,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>44998</v>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9673,7 +9673,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9682,7 +9682,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9691,7 +9691,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9700,7 +9700,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9709,7 +9709,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9718,7 +9718,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9727,7 +9727,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9736,7 +9736,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9745,7 +9745,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>44999</v>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9765,7 +9765,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9774,7 +9774,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9783,7 +9783,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9792,7 +9792,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9801,7 +9801,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9810,7 +9810,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9819,7 +9819,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9828,7 +9828,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9837,7 +9837,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>45000</v>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9857,7 +9857,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9866,7 +9866,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9875,7 +9875,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9884,7 +9884,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9893,7 +9893,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9902,7 +9902,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9911,7 +9911,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9920,7 +9920,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9929,7 +9929,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>45001</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9949,7 +9949,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9958,7 +9958,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>45002</v>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9978,7 +9978,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9987,7 +9987,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>45004</v>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10007,7 +10007,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10016,7 +10016,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10025,7 +10025,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10034,7 +10034,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10043,7 +10043,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>45005</v>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10063,7 +10063,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10072,7 +10072,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10081,7 +10081,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10090,7 +10090,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10099,7 +10099,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>45006</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10119,7 +10119,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10128,7 +10128,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10137,7 +10137,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10146,7 +10146,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10155,7 +10155,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>45007</v>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10175,7 +10175,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10184,7 +10184,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10193,7 +10193,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10202,7 +10202,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10211,7 +10211,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>45008</v>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10231,7 +10231,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10240,7 +10240,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10249,7 +10249,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10258,7 +10258,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10267,7 +10267,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11">
         <v>45009</v>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10287,7 +10287,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10296,7 +10296,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10305,7 +10305,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10314,7 +10314,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10323,7 +10323,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="8">
         <v>45011</v>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="8">
         <v>45012</v>
       </c>
     </row>
@@ -10435,7 +10435,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="8">
         <v>45013</v>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="8">
         <v>45014</v>
       </c>
     </row>
@@ -10493,7 +10493,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="8">
         <v>45015</v>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="8">
         <v>45016</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="8">
         <v>45019</v>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="8">
         <v>45020</v>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="8">
         <v>45023</v>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="8">
         <v>45026</v>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="8">
         <v>45027</v>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="8">
         <v>45028</v>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="8">
         <v>45029</v>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="8">
         <v>45030</v>
       </c>
     </row>
@@ -10864,7 +10864,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="8">
         <v>45031</v>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="8">
         <v>45032</v>
       </c>
     </row>
@@ -10922,7 +10922,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="8">
         <v>45033</v>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="8">
         <v>45034</v>
       </c>
     </row>
@@ -10980,7 +10980,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="8">
         <v>45035</v>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="8"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11036,7 +11036,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="8"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11063,7 +11063,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="8"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11090,7 +11090,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="8"/>
+      <c r="C165" s="17"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11117,7 +11117,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="8"/>
+      <c r="C168" s="17"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11144,7 +11144,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="11">
+      <c r="C171" s="8">
         <v>45041</v>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="8"/>
+      <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11200,7 +11200,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="8"/>
+      <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11227,7 +11227,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="11">
+      <c r="C180" s="8">
         <v>45044</v>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="11"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11283,7 +11283,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="11"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11311,7 +11311,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="11"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11338,7 +11338,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="11"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11365,7 +11365,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="11"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11392,7 +11392,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="11"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11419,7 +11419,7 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="11">
+      <c r="C201" s="8">
         <v>45051</v>
       </c>
     </row>
@@ -11448,7 +11448,9 @@
       <c r="B204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="8">
+        <v>45052</v>
+      </c>
     </row>
     <row r="205" spans="1:3" ht="15.75">
       <c r="A205" s="1">
@@ -11457,7 +11459,7 @@
       <c r="B205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="1">
@@ -11466,7 +11468,7 @@
       <c r="B206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="10"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="1">
@@ -11475,7 +11477,9 @@
       <c r="B207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="8">
+        <v>45053</v>
+      </c>
     </row>
     <row r="208" spans="1:3" ht="15.75">
       <c r="A208" s="1">
@@ -11484,7 +11488,7 @@
       <c r="B208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
       <c r="A209" s="1">
@@ -11493,7 +11497,7 @@
       <c r="B209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="10"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
       <c r="A210" s="1">
@@ -11502,7 +11506,9 @@
       <c r="B210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="8">
+        <v>45054</v>
+      </c>
     </row>
     <row r="211" spans="1:3" ht="15.75">
       <c r="A211" s="1">
@@ -11511,7 +11517,7 @@
       <c r="B211" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
       <c r="A212" s="1">
@@ -11520,7 +11526,7 @@
       <c r="B212" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="1"/>
+      <c r="C212" s="10"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
       <c r="A213" s="1">
@@ -36624,41 +36630,10 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
+  <mergeCells count="50">
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="C210:C212"/>
     <mergeCell ref="C174:C176"/>
     <mergeCell ref="C177:C179"/>
     <mergeCell ref="C180:C182"/>
@@ -36672,6 +36647,40 @@
     <mergeCell ref="C162:C164"/>
     <mergeCell ref="C165:C167"/>
     <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C195:C197"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD76A3-3B94-4653-AC2C-3C6F07F3A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC174E9-B293-4BA4-BADA-A1A7445BAB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9196,6 +9196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9213,9 +9216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219:C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9561,7 +9561,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>44997</v>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9581,7 +9581,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9590,7 +9590,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9599,7 +9599,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9608,7 +9608,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9617,7 +9617,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9626,7 +9626,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9635,7 +9635,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9644,7 +9644,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9653,7 +9653,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>44998</v>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9673,7 +9673,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9682,7 +9682,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9691,7 +9691,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9700,7 +9700,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9709,7 +9709,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9718,7 +9718,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9727,7 +9727,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9736,7 +9736,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9745,7 +9745,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>44999</v>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9765,7 +9765,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9774,7 +9774,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9783,7 +9783,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9792,7 +9792,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9801,7 +9801,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9810,7 +9810,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9819,7 +9819,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9828,7 +9828,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9837,7 +9837,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="15">
         <v>45000</v>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9857,7 +9857,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9866,7 +9866,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9875,7 +9875,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9884,7 +9884,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9893,7 +9893,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9902,7 +9902,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9911,7 +9911,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9920,7 +9920,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9929,7 +9929,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="15">
         <v>45001</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9949,7 +9949,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9958,7 +9958,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="12">
         <v>45002</v>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9978,7 +9978,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -9987,7 +9987,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="12">
         <v>45004</v>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10007,7 +10007,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10016,7 +10016,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10025,7 +10025,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10034,7 +10034,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10043,7 +10043,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="12">
         <v>45005</v>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10063,7 +10063,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10072,7 +10072,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10081,7 +10081,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10090,7 +10090,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10099,7 +10099,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="12">
         <v>45006</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10119,7 +10119,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10128,7 +10128,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10137,7 +10137,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10146,7 +10146,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10155,7 +10155,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="12">
         <v>45007</v>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10175,7 +10175,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10184,7 +10184,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10193,7 +10193,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10202,7 +10202,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10211,7 +10211,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="12">
         <v>45008</v>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10231,7 +10231,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10240,7 +10240,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10249,7 +10249,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10258,7 +10258,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10267,7 +10267,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="12">
         <v>45009</v>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10287,7 +10287,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="12"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10296,7 +10296,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10305,7 +10305,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10314,7 +10314,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -11009,7 +11009,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="17"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11036,7 +11036,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="17"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11063,7 +11063,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11090,7 +11090,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11117,7 +11117,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11173,7 +11173,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11200,7 +11200,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="17"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11535,7 +11535,7 @@
       <c r="B213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C213" s="1"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
       <c r="A214" s="1">
@@ -11544,7 +11544,7 @@
       <c r="B214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="1"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
       <c r="A215" s="1">
@@ -11553,7 +11553,7 @@
       <c r="B215" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C215" s="1"/>
+      <c r="C215" s="10"/>
     </row>
     <row r="216" spans="1:3" ht="15.75">
       <c r="A216" s="1">
@@ -11562,7 +11562,9 @@
       <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C216" s="1"/>
+      <c r="C216" s="8">
+        <v>45056</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="15.75">
       <c r="A217" s="1">
@@ -11571,7 +11573,7 @@
       <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C217" s="1"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" ht="15.75">
       <c r="A218" s="1">
@@ -11580,7 +11582,7 @@
       <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C218" s="1"/>
+      <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:3" ht="15.75">
       <c r="A219" s="1">
@@ -36630,13 +36632,36 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C182"/>
+  <mergeCells count="52">
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
@@ -36647,33 +36672,12 @@
     <mergeCell ref="C162:C164"/>
     <mergeCell ref="C165:C167"/>
     <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C182"/>
     <mergeCell ref="C198:C200"/>
     <mergeCell ref="C201:C203"/>
     <mergeCell ref="C183:C185"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A62DFA8-4356-4898-B731-CE6D215653B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3BE68-1926-4C6A-B391-BA2A3AB118DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9051,7 +9051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9086,31 +9086,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="EF Circular Latin"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="EF Circular Latin"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9120,6 +9101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9188,7 +9175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9197,6 +9184,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9204,6 +9192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9224,28 +9215,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9564,8 +9548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:C234"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9592,7 +9576,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>44997</v>
       </c>
     </row>
@@ -9603,7 +9587,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9612,7 +9596,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9621,7 +9605,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9630,7 +9614,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9639,7 +9623,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9648,7 +9632,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9657,7 +9641,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9666,7 +9650,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9675,7 +9659,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9684,7 +9668,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <v>44998</v>
       </c>
     </row>
@@ -9695,7 +9679,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9704,7 +9688,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9713,7 +9697,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9722,7 +9706,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9731,7 +9715,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9740,7 +9724,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9749,7 +9733,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9758,7 +9742,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9767,7 +9751,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9776,7 +9760,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>44999</v>
       </c>
     </row>
@@ -9787,7 +9771,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9796,7 +9780,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9805,7 +9789,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9814,7 +9798,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9823,7 +9807,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9832,7 +9816,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9841,7 +9825,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9850,7 +9834,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9859,7 +9843,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9868,7 +9852,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="14">
         <v>45000</v>
       </c>
     </row>
@@ -9879,7 +9863,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9888,7 +9872,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9897,7 +9881,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9906,7 +9890,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9915,7 +9899,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9924,7 +9908,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9933,7 +9917,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9942,7 +9926,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9951,7 +9935,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9960,7 +9944,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="14">
         <v>45001</v>
       </c>
     </row>
@@ -9971,7 +9955,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9980,7 +9964,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9989,7 +9973,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="11">
         <v>45002</v>
       </c>
     </row>
@@ -10000,7 +9984,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -10009,7 +9993,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -10018,7 +10002,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="11">
         <v>45004</v>
       </c>
     </row>
@@ -10029,7 +10013,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10038,7 +10022,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10047,7 +10031,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10056,7 +10040,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10065,7 +10049,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10074,7 +10058,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>45005</v>
       </c>
     </row>
@@ -10085,7 +10069,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10094,7 +10078,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10103,7 +10087,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10112,7 +10096,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10121,7 +10105,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10130,7 +10114,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="11">
         <v>45006</v>
       </c>
     </row>
@@ -10141,7 +10125,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10150,7 +10134,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10159,7 +10143,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10168,7 +10152,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10177,7 +10161,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10186,7 +10170,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="11">
         <v>45007</v>
       </c>
     </row>
@@ -10197,7 +10181,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10206,7 +10190,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10215,7 +10199,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10224,7 +10208,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10233,7 +10217,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10242,7 +10226,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="11">
         <v>45008</v>
       </c>
     </row>
@@ -10253,7 +10237,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10262,7 +10246,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10271,7 +10255,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10280,7 +10264,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10289,7 +10273,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10298,7 +10282,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="11">
         <v>45009</v>
       </c>
     </row>
@@ -10309,7 +10293,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10318,7 +10302,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10327,7 +10311,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10336,7 +10320,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10345,7 +10329,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="11"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10354,7 +10338,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>45011</v>
       </c>
     </row>
@@ -10365,7 +10349,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10374,7 +10358,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="7"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10383,7 +10367,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="7"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10392,7 +10376,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10401,7 +10385,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10410,7 +10394,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>45012</v>
       </c>
     </row>
@@ -10421,7 +10405,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10430,7 +10414,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="7"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10439,7 +10423,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="7"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10448,7 +10432,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="7"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10457,7 +10441,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10466,7 +10450,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="7">
         <v>45013</v>
       </c>
     </row>
@@ -10477,7 +10461,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="7"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10486,7 +10470,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10495,7 +10479,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="7">
         <v>45014</v>
       </c>
     </row>
@@ -10506,7 +10490,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10515,7 +10499,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10524,7 +10508,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="7">
         <v>45015</v>
       </c>
     </row>
@@ -10535,7 +10519,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="7"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10544,7 +10528,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="8"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10553,7 +10537,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="7">
         <v>45016</v>
       </c>
     </row>
@@ -10564,7 +10548,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="7"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10573,7 +10557,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10582,7 +10566,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="7">
         <v>45019</v>
       </c>
     </row>
@@ -10593,7 +10577,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="7"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10602,7 +10586,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="8"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10611,7 +10595,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="7">
         <v>45020</v>
       </c>
     </row>
@@ -10622,7 +10606,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="7"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10631,7 +10615,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="8"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10640,7 +10624,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="7">
         <v>45023</v>
       </c>
     </row>
@@ -10651,7 +10635,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="7"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10660,7 +10644,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="7"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10669,7 +10653,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="7"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10678,7 +10662,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="7"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10687,7 +10671,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="8"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10696,7 +10680,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="7">
         <v>45026</v>
       </c>
     </row>
@@ -10707,7 +10691,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="7"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10716,7 +10700,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10725,7 +10709,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="7"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10734,7 +10718,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="7"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10743,7 +10727,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="8"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10752,7 +10736,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="7">
         <v>45027</v>
       </c>
     </row>
@@ -10763,7 +10747,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="7"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10772,7 +10756,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="7"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10781,7 +10765,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="7"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10790,7 +10774,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="7"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10799,7 +10783,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="8"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10808,7 +10792,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="7">
         <v>45028</v>
       </c>
     </row>
@@ -10819,7 +10803,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10828,7 +10812,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -10837,7 +10821,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="7">
         <v>45029</v>
       </c>
     </row>
@@ -10848,7 +10832,7 @@
       <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="7"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
@@ -10857,7 +10841,7 @@
       <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="8"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10866,7 +10850,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="7">
         <v>45030</v>
       </c>
     </row>
@@ -10877,7 +10861,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="7"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10886,7 +10870,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="8"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10895,7 +10879,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="7">
         <v>45031</v>
       </c>
     </row>
@@ -10906,7 +10890,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="7"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10915,7 +10899,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="8"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10924,7 +10908,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="7">
         <v>45032</v>
       </c>
     </row>
@@ -10935,7 +10919,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="7"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10944,7 +10928,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -10953,7 +10937,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="7">
         <v>45033</v>
       </c>
     </row>
@@ -10964,7 +10948,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="7"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10973,7 +10957,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="8"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -10982,7 +10966,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="7">
         <v>45034</v>
       </c>
     </row>
@@ -10993,7 +10977,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="7"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -11002,7 +10986,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -11011,7 +10995,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="7">
         <v>45035</v>
       </c>
     </row>
@@ -11022,7 +11006,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -11031,7 +11015,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="8"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -11040,7 +11024,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="15"/>
+      <c r="C156" s="10"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11049,7 +11033,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="7"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11058,7 +11042,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="8"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11067,7 +11051,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="15"/>
+      <c r="C159" s="10"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11076,7 +11060,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="7"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11085,7 +11069,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="8"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11094,7 +11078,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="15"/>
+      <c r="C162" s="10"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11103,7 +11087,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11112,7 +11096,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="8"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11121,7 +11105,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="15"/>
+      <c r="C165" s="10"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11130,7 +11114,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11139,7 +11123,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="8"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11148,7 +11132,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="15"/>
+      <c r="C168" s="10"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11157,7 +11141,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="7"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11166,7 +11150,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="8"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11175,7 +11159,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="7">
         <v>45041</v>
       </c>
     </row>
@@ -11186,7 +11170,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="7"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11195,7 +11179,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="8"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -11204,7 +11188,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="15"/>
+      <c r="C174" s="10"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11213,7 +11197,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="7"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11222,7 +11206,7 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="8"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
@@ -11231,7 +11215,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="15"/>
+      <c r="C177" s="10"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11240,7 +11224,7 @@
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="7"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
@@ -11249,7 +11233,7 @@
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="8"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
@@ -11258,7 +11242,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="7">
         <v>45044</v>
       </c>
     </row>
@@ -11269,7 +11253,7 @@
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="7"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
@@ -11278,7 +11262,7 @@
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="8"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
@@ -11287,7 +11271,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="6"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11296,7 +11280,7 @@
       <c r="B184" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="7"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
@@ -11305,7 +11289,7 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="8"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
@@ -11314,7 +11298,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="6"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11323,7 +11307,7 @@
       <c r="B187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="7"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
@@ -11332,7 +11316,7 @@
       <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="8"/>
+      <c r="C188" s="9"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -11342,7 +11326,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="6"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11351,7 +11335,7 @@
       <c r="B190" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="7"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
@@ -11360,7 +11344,7 @@
       <c r="B191" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="8"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
@@ -11369,7 +11353,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="6"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11378,7 +11362,7 @@
       <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="7"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194" spans="1:3" ht="15.75">
       <c r="A194" s="1">
@@ -11387,7 +11371,7 @@
       <c r="B194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="8"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3" ht="15.75">
       <c r="A195" s="1">
@@ -11396,7 +11380,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="6"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11405,7 +11389,7 @@
       <c r="B196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="7"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="1">
@@ -11414,7 +11398,7 @@
       <c r="B197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C197" s="8"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="1">
@@ -11423,7 +11407,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="6"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11432,7 +11416,7 @@
       <c r="B199" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="7"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="1">
@@ -11441,7 +11425,7 @@
       <c r="B200" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="8"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="1">
@@ -11450,7 +11434,7 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="7">
         <v>45051</v>
       </c>
     </row>
@@ -11461,7 +11445,7 @@
       <c r="B202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C202" s="7"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="1">
@@ -11470,7 +11454,7 @@
       <c r="B203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C203" s="8"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="1">
@@ -11479,7 +11463,7 @@
       <c r="B204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="7">
         <v>45052</v>
       </c>
     </row>
@@ -11490,7 +11474,7 @@
       <c r="B205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="7"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="1">
@@ -11499,7 +11483,7 @@
       <c r="B206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C206" s="8"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="1">
@@ -11508,7 +11492,7 @@
       <c r="B207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="7">
         <v>45053</v>
       </c>
     </row>
@@ -11519,7 +11503,7 @@
       <c r="B208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="7"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
       <c r="A209" s="1">
@@ -11528,7 +11512,7 @@
       <c r="B209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C209" s="8"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
       <c r="A210" s="1">
@@ -11537,7 +11521,7 @@
       <c r="B210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="7">
         <v>45054</v>
       </c>
     </row>
@@ -11548,7 +11532,7 @@
       <c r="B211" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="7"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
       <c r="A212" s="1">
@@ -11557,7 +11541,7 @@
       <c r="B212" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="8"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
       <c r="A213" s="1">
@@ -11566,7 +11550,7 @@
       <c r="B213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C213" s="6"/>
+      <c r="C213" s="7"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
       <c r="A214" s="1">
@@ -11575,7 +11559,7 @@
       <c r="B214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="7"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
       <c r="A215" s="1">
@@ -11584,7 +11568,7 @@
       <c r="B215" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C215" s="8"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="1:3" ht="15.75">
       <c r="A216" s="1">
@@ -11593,7 +11577,7 @@
       <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="7">
         <v>45056</v>
       </c>
     </row>
@@ -11604,7 +11588,7 @@
       <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C217" s="7"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218" spans="1:3" ht="15.75">
       <c r="A218" s="1">
@@ -11613,170 +11597,170 @@
       <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C218" s="8"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3" ht="15.75">
-      <c r="A219" s="1">
+      <c r="A219" s="18">
         <v>218</v>
       </c>
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C219" s="16">
+      <c r="C219" s="19">
         <v>45057</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75">
-      <c r="A220" s="1">
+      <c r="A220" s="18">
         <v>219</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C220" s="17"/>
+      <c r="C220" s="20"/>
     </row>
     <row r="221" spans="1:3" ht="15.75">
-      <c r="A221" s="1">
+      <c r="A221" s="18">
         <v>220</v>
       </c>
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="17"/>
+      <c r="C221" s="20"/>
     </row>
     <row r="222" spans="1:3" ht="15.75">
-      <c r="A222" s="1">
+      <c r="A222" s="18">
         <v>221</v>
       </c>
-      <c r="B222" s="19" t="s">
+      <c r="B222" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="18"/>
+      <c r="C222" s="21"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
-      <c r="A223" s="21">
+      <c r="A223" s="18">
         <v>222</v>
       </c>
-      <c r="B223" s="20" t="s">
+      <c r="B223" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="22">
+      <c r="C223" s="19">
         <v>45058</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75">
-      <c r="A224" s="21">
+      <c r="A224" s="18">
         <v>223</v>
       </c>
-      <c r="B224" s="20" t="s">
+      <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="23"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="1:3" ht="15.75">
-      <c r="A225" s="21">
+      <c r="A225" s="18">
         <v>224</v>
       </c>
-      <c r="B225" s="20" t="s">
+      <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="24"/>
+      <c r="C225" s="23"/>
     </row>
     <row r="226" spans="1:3" ht="15.75">
-      <c r="A226" s="21">
+      <c r="A226" s="18">
         <v>225</v>
       </c>
-      <c r="B226" s="20" t="s">
+      <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="22">
+      <c r="C226" s="19">
         <v>45059</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75">
-      <c r="A227" s="21">
+      <c r="A227" s="18">
         <v>226</v>
       </c>
-      <c r="B227" s="20" t="s">
+      <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="23"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="1:3" ht="15.75">
-      <c r="A228" s="21">
+      <c r="A228" s="18">
         <v>227</v>
       </c>
-      <c r="B228" s="20" t="s">
+      <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="24"/>
+      <c r="C228" s="23"/>
     </row>
     <row r="229" spans="1:3" ht="15.75">
-      <c r="A229" s="21">
+      <c r="A229" s="18">
         <v>228</v>
       </c>
-      <c r="B229" s="20" t="s">
+      <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="22">
+      <c r="C229" s="19">
         <v>45060</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75">
-      <c r="A230" s="21">
+      <c r="A230" s="18">
         <v>229</v>
       </c>
-      <c r="B230" s="20" t="s">
+      <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="23"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="1:3" ht="15.75">
-      <c r="A231" s="21">
+      <c r="A231" s="18">
         <v>230</v>
       </c>
-      <c r="B231" s="20" t="s">
+      <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C231" s="24"/>
+      <c r="C231" s="23"/>
     </row>
     <row r="232" spans="1:3" ht="15.75">
-      <c r="A232" s="21">
+      <c r="A232" s="18">
         <v>231</v>
       </c>
-      <c r="B232" s="20" t="s">
+      <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C232" s="22">
+      <c r="C232" s="19">
         <v>45061</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15.75">
-      <c r="A233" s="21">
+      <c r="A233" s="18">
         <v>232</v>
       </c>
-      <c r="B233" s="20" t="s">
+      <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="23"/>
+      <c r="C233" s="22"/>
     </row>
     <row r="234" spans="1:3" ht="15.75">
-      <c r="A234" s="21">
+      <c r="A234" s="18">
         <v>233</v>
       </c>
-      <c r="B234" s="20" t="s">
+      <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C234" s="24"/>
+      <c r="C234" s="23"/>
     </row>
     <row r="235" spans="1:3" ht="15.75">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="7">
         <v>45062</v>
       </c>
     </row>
@@ -11784,28 +11768,28 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="7"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237" spans="1:3" ht="15.75">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:3" ht="15.75">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="7">
         <v>45063</v>
       </c>
     </row>
@@ -11813,28 +11797,28 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="7"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240" spans="1:3" ht="15.75">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="8"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="1:3" ht="15.75">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="7">
         <v>45064</v>
       </c>
     </row>
@@ -11842,19 +11826,19 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C242" s="7"/>
+      <c r="C242" s="8"/>
     </row>
     <row r="243" spans="1:3" ht="15.75">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="8"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="1:3" ht="15.75">
       <c r="A244" s="1">
@@ -11863,7 +11847,7 @@
       <c r="B244" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="7">
         <v>45065</v>
       </c>
     </row>
@@ -11874,7 +11858,7 @@
       <c r="B245" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="7"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246" spans="1:3" ht="15.75">
       <c r="A246" s="1">
@@ -11883,7 +11867,7 @@
       <c r="B246" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C246" s="8"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="1:3" ht="15.75">
       <c r="A247" s="1">
@@ -11892,7 +11876,7 @@
       <c r="B247" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="7">
         <v>45066</v>
       </c>
     </row>
@@ -11903,7 +11887,7 @@
       <c r="B248" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="7"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249" spans="1:3" ht="15.75">
       <c r="A249" s="1">
@@ -11912,7 +11896,7 @@
       <c r="B249" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="8"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="1:3" ht="15.75">
       <c r="A250" s="1">
@@ -11921,7 +11905,7 @@
       <c r="B250" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="7">
         <v>45067</v>
       </c>
     </row>
@@ -11932,7 +11916,7 @@
       <c r="B251" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="7"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252" spans="1:3" ht="15.75">
       <c r="A252" s="1">
@@ -11941,7 +11925,7 @@
       <c r="B252" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="8"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3" ht="15.75">
       <c r="A253" s="1">
@@ -11950,7 +11934,7 @@
       <c r="B253" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="7">
         <v>45068</v>
       </c>
     </row>
@@ -11961,7 +11945,7 @@
       <c r="B254" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="7"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255" spans="1:3" ht="15.75">
       <c r="A255" s="1">
@@ -11970,7 +11954,7 @@
       <c r="B255" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="8"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="1:3" ht="15.75">
       <c r="A256" s="1">
@@ -11979,7 +11963,7 @@
       <c r="B256" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="7">
         <v>45069</v>
       </c>
     </row>
@@ -11990,7 +11974,7 @@
       <c r="B257" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="7"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258" spans="1:3" ht="15.75">
       <c r="A258" s="1">
@@ -11999,7 +11983,7 @@
       <c r="B258" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="8"/>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="1">
@@ -12008,7 +11992,7 @@
       <c r="B259" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="7">
         <v>45070</v>
       </c>
     </row>
@@ -12019,7 +12003,7 @@
       <c r="B260" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="7"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261" spans="1:3" ht="15.75">
       <c r="A261" s="1">
@@ -12028,7 +12012,7 @@
       <c r="B261" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="8"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="1:3" ht="15.75">
       <c r="A262" s="1">
@@ -12037,7 +12021,7 @@
       <c r="B262" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="7">
         <v>45071</v>
       </c>
     </row>
@@ -12048,7 +12032,7 @@
       <c r="B263" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="7"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264" spans="1:3" ht="15.75">
       <c r="A264" s="1">
@@ -12057,7 +12041,7 @@
       <c r="B264" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="8"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="1">
@@ -12066,7 +12050,7 @@
       <c r="B265" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="7">
         <v>45072</v>
       </c>
     </row>
@@ -12077,7 +12061,7 @@
       <c r="B266" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="7"/>
+      <c r="C266" s="8"/>
     </row>
     <row r="267" spans="1:3" ht="15.75">
       <c r="A267" s="1">
@@ -12086,7 +12070,7 @@
       <c r="B267" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="8"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="1:3" ht="15.75">
       <c r="A268" s="1">
@@ -12095,7 +12079,7 @@
       <c r="B268" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="7">
         <v>45073</v>
       </c>
     </row>
@@ -12106,7 +12090,7 @@
       <c r="B269" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="7"/>
+      <c r="C269" s="8"/>
     </row>
     <row r="270" spans="1:3" ht="15.75">
       <c r="A270" s="1">
@@ -12115,7 +12099,7 @@
       <c r="B270" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="8"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" spans="1:3" ht="15.75">
       <c r="A271" s="1">
@@ -12124,7 +12108,7 @@
       <c r="B271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="7">
         <v>45074</v>
       </c>
     </row>
@@ -12135,7 +12119,7 @@
       <c r="B272" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C272" s="7"/>
+      <c r="C272" s="8"/>
     </row>
     <row r="273" spans="1:3" ht="15.75">
       <c r="A273" s="1">
@@ -12144,7 +12128,7 @@
       <c r="B273" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="8"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="1:3" ht="15.75">
       <c r="A274" s="1">
@@ -12153,7 +12137,7 @@
       <c r="B274" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C274" s="6">
+      <c r="C274" s="7">
         <v>45075</v>
       </c>
     </row>
@@ -12164,7 +12148,7 @@
       <c r="B275" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="7"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276" spans="1:3" ht="15.75">
       <c r="A276" s="1">
@@ -12173,7 +12157,7 @@
       <c r="B276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="8"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" spans="1:3" ht="15.75">
       <c r="A277" s="1">
@@ -12182,7 +12166,7 @@
       <c r="B277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="7">
         <v>45076</v>
       </c>
     </row>
@@ -12193,7 +12177,7 @@
       <c r="B278" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="7"/>
+      <c r="C278" s="8"/>
     </row>
     <row r="279" spans="1:3" ht="15.75">
       <c r="A279" s="1">
@@ -12202,7 +12186,7 @@
       <c r="B279" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="8"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="1:3" ht="15.75">
       <c r="A280" s="1">
@@ -12211,7 +12195,7 @@
       <c r="B280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="6">
+      <c r="C280" s="7">
         <v>45077</v>
       </c>
     </row>
@@ -12222,7 +12206,7 @@
       <c r="B281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="7"/>
+      <c r="C281" s="8"/>
     </row>
     <row r="282" spans="1:3" ht="15.75">
       <c r="A282" s="1">
@@ -12231,7 +12215,7 @@
       <c r="B282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="8"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283" spans="1:3" ht="15.75">
       <c r="A283" s="1">
@@ -12240,7 +12224,7 @@
       <c r="B283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="6">
+      <c r="C283" s="7">
         <v>45078</v>
       </c>
     </row>
@@ -12251,7 +12235,7 @@
       <c r="B284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="7"/>
+      <c r="C284" s="8"/>
     </row>
     <row r="285" spans="1:3" ht="15.75">
       <c r="A285" s="1">
@@ -12260,7 +12244,7 @@
       <c r="B285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="8"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="1:3" ht="15.75">
       <c r="A286" s="1">
@@ -12269,7 +12253,7 @@
       <c r="B286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="7">
         <v>45079</v>
       </c>
     </row>
@@ -12280,7 +12264,7 @@
       <c r="B287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="7"/>
+      <c r="C287" s="8"/>
     </row>
     <row r="288" spans="1:3" ht="15.75">
       <c r="A288" s="1">
@@ -12289,7 +12273,7 @@
       <c r="B288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="8"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" spans="1:3" ht="15.75">
       <c r="A289" s="1">
@@ -12298,7 +12282,7 @@
       <c r="B289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C289" s="7">
         <v>45080</v>
       </c>
     </row>
@@ -12309,7 +12293,7 @@
       <c r="B290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="7"/>
+      <c r="C290" s="8"/>
     </row>
     <row r="291" spans="1:3" ht="15.75">
       <c r="A291" s="1">
@@ -12318,7 +12302,7 @@
       <c r="B291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="8"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" spans="1:3" ht="15.75">
       <c r="A292" s="1">
@@ -12327,7 +12311,7 @@
       <c r="B292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="6">
+      <c r="C292" s="7">
         <v>45081</v>
       </c>
     </row>
@@ -12338,7 +12322,7 @@
       <c r="B293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C293" s="7"/>
+      <c r="C293" s="8"/>
     </row>
     <row r="294" spans="1:3" ht="15.75">
       <c r="A294" s="1">
@@ -12347,7 +12331,7 @@
       <c r="B294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="8"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="1:3" ht="15.75">
       <c r="A295" s="1">
@@ -12356,7 +12340,7 @@
       <c r="B295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="6">
+      <c r="C295" s="7">
         <v>45082</v>
       </c>
     </row>
@@ -12367,7 +12351,7 @@
       <c r="B296" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="7"/>
+      <c r="C296" s="8"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="1">
@@ -12376,7 +12360,7 @@
       <c r="B297" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="8"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="1:3" ht="15.75">
       <c r="A298" s="1">
@@ -12385,7 +12369,7 @@
       <c r="B298" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="6">
+      <c r="C298" s="7">
         <v>45083</v>
       </c>
     </row>
@@ -12396,7 +12380,7 @@
       <c r="B299" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="7"/>
+      <c r="C299" s="8"/>
     </row>
     <row r="300" spans="1:3" ht="15.75">
       <c r="A300" s="1">
@@ -12405,7 +12389,7 @@
       <c r="B300" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="8"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301" spans="1:3" ht="15.75">
       <c r="A301" s="1">
@@ -36718,23 +36702,52 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="C292:C294"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="C238:C240"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
     <mergeCell ref="C219:C222"/>
     <mergeCell ref="C204:C206"/>
     <mergeCell ref="C207:C209"/>
@@ -36751,52 +36764,23 @@
     <mergeCell ref="C195:C197"/>
     <mergeCell ref="C213:C215"/>
     <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C238:C240"/>
-    <mergeCell ref="C241:C243"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="C292:C294"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3BE68-1926-4C6A-B391-BA2A3AB118DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542337CE-F8CF-4D5B-AE32-93E46707A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9091,7 +9091,7 @@
       <name val="EF Circular Latin"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9107,6 +9107,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9175,7 +9187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9185,6 +9197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9192,9 +9205,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9215,23 +9225,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9548,8 +9552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253:B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10338,7 +10342,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="8">
         <v>45011</v>
       </c>
     </row>
@@ -10349,7 +10353,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10358,7 +10362,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10367,7 +10371,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10376,7 +10380,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10385,7 +10389,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10394,7 +10398,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="8">
         <v>45012</v>
       </c>
     </row>
@@ -10405,7 +10409,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10414,7 +10418,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10423,7 +10427,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10432,7 +10436,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10441,7 +10445,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10450,7 +10454,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="8">
         <v>45013</v>
       </c>
     </row>
@@ -10461,7 +10465,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10470,7 +10474,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10479,7 +10483,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="8">
         <v>45014</v>
       </c>
     </row>
@@ -10490,7 +10494,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10499,7 +10503,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="10"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10508,7 +10512,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="8">
         <v>45015</v>
       </c>
     </row>
@@ -10519,7 +10523,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10528,7 +10532,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10537,7 +10541,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="8">
         <v>45016</v>
       </c>
     </row>
@@ -10548,7 +10552,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10557,7 +10561,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10566,7 +10570,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="8">
         <v>45019</v>
       </c>
     </row>
@@ -10577,7 +10581,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="8"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10586,7 +10590,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10595,7 +10599,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="8">
         <v>45020</v>
       </c>
     </row>
@@ -10606,7 +10610,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="8"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10615,7 +10619,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10624,7 +10628,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="8">
         <v>45023</v>
       </c>
     </row>
@@ -10635,7 +10639,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10644,7 +10648,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="8"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10653,7 +10657,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="8"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10662,7 +10666,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="8"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10671,7 +10675,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="10"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10680,7 +10684,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="8">
         <v>45026</v>
       </c>
     </row>
@@ -10691,7 +10695,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="8"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10700,7 +10704,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="8"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10709,7 +10713,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="8"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10718,7 +10722,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="8"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10727,7 +10731,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="10"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10736,7 +10740,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="8">
         <v>45027</v>
       </c>
     </row>
@@ -10747,7 +10751,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="8"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10756,7 +10760,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="8"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10765,7 +10769,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="8"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10774,7 +10778,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="8"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10783,7 +10787,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10792,7 +10796,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="8">
         <v>45028</v>
       </c>
     </row>
@@ -10803,7 +10807,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10812,7 +10816,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="10"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -10821,7 +10825,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="8">
         <v>45029</v>
       </c>
     </row>
@@ -10832,7 +10836,7 @@
       <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="8"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
@@ -10841,7 +10845,7 @@
       <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="10"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10850,7 +10854,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="8">
         <v>45030</v>
       </c>
     </row>
@@ -10861,7 +10865,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="8"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10870,7 +10874,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="10"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10879,7 +10883,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="8">
         <v>45031</v>
       </c>
     </row>
@@ -10890,7 +10894,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="8"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10899,7 +10903,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="10"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10908,7 +10912,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="8">
         <v>45032</v>
       </c>
     </row>
@@ -10919,7 +10923,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="8"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10928,7 +10932,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -10937,7 +10941,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="8">
         <v>45033</v>
       </c>
     </row>
@@ -10948,7 +10952,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="8"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10957,7 +10961,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -10966,7 +10970,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="8">
         <v>45034</v>
       </c>
     </row>
@@ -10977,7 +10981,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="8"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -10986,7 +10990,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="9"/>
+      <c r="C152" s="10"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -10995,7 +10999,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="8">
         <v>45035</v>
       </c>
     </row>
@@ -11006,7 +11010,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="8"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -11015,7 +11019,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="9"/>
+      <c r="C155" s="10"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -11024,7 +11028,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="10"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11033,7 +11037,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="8"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11042,7 +11046,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="9"/>
+      <c r="C158" s="10"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11051,7 +11055,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="10"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11060,7 +11064,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="8"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11069,7 +11073,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="10"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11078,7 +11082,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="10"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11087,7 +11091,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="8"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11096,7 +11100,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="10"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11105,7 +11109,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="10"/>
+      <c r="C165" s="17"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11114,7 +11118,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="8"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11123,7 +11127,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="10"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11132,7 +11136,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="10"/>
+      <c r="C168" s="17"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11141,7 +11145,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="8"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11150,7 +11154,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="9"/>
+      <c r="C170" s="10"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11159,7 +11163,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="8">
         <v>45041</v>
       </c>
     </row>
@@ -11170,7 +11174,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="8"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11179,7 +11183,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="9"/>
+      <c r="C173" s="10"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -11188,7 +11192,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="10"/>
+      <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11197,7 +11201,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="8"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11206,7 +11210,7 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="10"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
@@ -11215,7 +11219,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="10"/>
+      <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11224,7 +11228,7 @@
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="8"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
@@ -11233,7 +11237,7 @@
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="9"/>
+      <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
@@ -11242,7 +11246,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="8">
         <v>45044</v>
       </c>
     </row>
@@ -11253,7 +11257,7 @@
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="8"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
@@ -11262,7 +11266,7 @@
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="9"/>
+      <c r="C182" s="10"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
@@ -11271,7 +11275,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="7"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11280,7 +11284,7 @@
       <c r="B184" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="8"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
@@ -11289,7 +11293,7 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="C185" s="10"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
@@ -11298,7 +11302,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="7"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11307,7 +11311,7 @@
       <c r="B187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="8"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
@@ -11316,7 +11320,7 @@
       <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="9"/>
+      <c r="C188" s="10"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -11326,7 +11330,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="7"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11335,7 +11339,7 @@
       <c r="B190" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="8"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
@@ -11344,7 +11348,7 @@
       <c r="B191" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="10"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
@@ -11353,7 +11357,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="7"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11362,7 +11366,7 @@
       <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="8"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" ht="15.75">
       <c r="A194" s="1">
@@ -11371,7 +11375,7 @@
       <c r="B194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="9"/>
+      <c r="C194" s="10"/>
     </row>
     <row r="195" spans="1:3" ht="15.75">
       <c r="A195" s="1">
@@ -11380,7 +11384,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="7"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11389,7 +11393,7 @@
       <c r="B196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="8"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="1">
@@ -11398,7 +11402,7 @@
       <c r="B197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C197" s="9"/>
+      <c r="C197" s="10"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="1">
@@ -11407,7 +11411,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="7"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11416,7 +11420,7 @@
       <c r="B199" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="8"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="1">
@@ -11425,7 +11429,7 @@
       <c r="B200" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="9"/>
+      <c r="C200" s="10"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="1">
@@ -11434,7 +11438,7 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="8">
         <v>45051</v>
       </c>
     </row>
@@ -11445,7 +11449,7 @@
       <c r="B202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C202" s="8"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="1">
@@ -11454,7 +11458,7 @@
       <c r="B203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C203" s="9"/>
+      <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="1">
@@ -11463,7 +11467,7 @@
       <c r="B204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="8">
         <v>45052</v>
       </c>
     </row>
@@ -11474,7 +11478,7 @@
       <c r="B205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="8"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="1">
@@ -11483,7 +11487,7 @@
       <c r="B206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C206" s="9"/>
+      <c r="C206" s="10"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="1">
@@ -11492,7 +11496,7 @@
       <c r="B207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="8">
         <v>45053</v>
       </c>
     </row>
@@ -11503,7 +11507,7 @@
       <c r="B208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="8"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
       <c r="A209" s="1">
@@ -11512,7 +11516,7 @@
       <c r="B209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C209" s="10"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
       <c r="A210" s="1">
@@ -11521,7 +11525,7 @@
       <c r="B210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="8">
         <v>45054</v>
       </c>
     </row>
@@ -11532,7 +11536,7 @@
       <c r="B211" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="8"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
       <c r="A212" s="1">
@@ -11541,7 +11545,7 @@
       <c r="B212" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="10"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
       <c r="A213" s="1">
@@ -11550,7 +11554,7 @@
       <c r="B213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C213" s="7"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
       <c r="A214" s="1">
@@ -11559,7 +11563,7 @@
       <c r="B214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="8"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
       <c r="A215" s="1">
@@ -11568,7 +11572,7 @@
       <c r="B215" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C215" s="9"/>
+      <c r="C215" s="10"/>
     </row>
     <row r="216" spans="1:3" ht="15.75">
       <c r="A216" s="1">
@@ -11577,7 +11581,7 @@
       <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="8">
         <v>45056</v>
       </c>
     </row>
@@ -11588,7 +11592,7 @@
       <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C217" s="8"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" ht="15.75">
       <c r="A218" s="1">
@@ -11597,170 +11601,170 @@
       <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C218" s="9"/>
+      <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:3" ht="15.75">
-      <c r="A219" s="18">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C219" s="19">
+      <c r="C219" s="8">
         <v>45057</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75">
-      <c r="A220" s="18">
+      <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C220" s="20"/>
+      <c r="C220" s="18"/>
     </row>
     <row r="221" spans="1:3" ht="15.75">
-      <c r="A221" s="18">
+      <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="20"/>
+      <c r="C221" s="18"/>
     </row>
     <row r="222" spans="1:3" ht="15.75">
-      <c r="A222" s="18">
+      <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="21"/>
+      <c r="C222" s="19"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
-      <c r="A223" s="18">
+      <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="19">
+      <c r="C223" s="8">
         <v>45058</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75">
-      <c r="A224" s="18">
+      <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="22"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" ht="15.75">
-      <c r="A225" s="18">
+      <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="23"/>
+      <c r="C225" s="10"/>
     </row>
     <row r="226" spans="1:3" ht="15.75">
-      <c r="A226" s="18">
+      <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="19">
+      <c r="C226" s="8">
         <v>45059</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75">
-      <c r="A227" s="18">
+      <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="22"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3" ht="15.75">
-      <c r="A228" s="18">
+      <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="23"/>
+      <c r="C228" s="10"/>
     </row>
     <row r="229" spans="1:3" ht="15.75">
-      <c r="A229" s="18">
+      <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="19">
+      <c r="C229" s="8">
         <v>45060</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75">
-      <c r="A230" s="18">
+      <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="22"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" ht="15.75">
-      <c r="A231" s="18">
+      <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C231" s="23"/>
+      <c r="C231" s="10"/>
     </row>
     <row r="232" spans="1:3" ht="15.75">
-      <c r="A232" s="18">
+      <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C232" s="19">
+      <c r="C232" s="8">
         <v>45061</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15.75">
-      <c r="A233" s="18">
+      <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="22"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" ht="15.75">
-      <c r="A234" s="18">
+      <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C234" s="23"/>
+      <c r="C234" s="10"/>
     </row>
     <row r="235" spans="1:3" ht="15.75">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="17" t="s">
+      <c r="B235" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="8">
         <v>45062</v>
       </c>
     </row>
@@ -11768,28 +11772,28 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="8"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3" ht="15.75">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="17" t="s">
+      <c r="B237" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C237" s="9"/>
+      <c r="C237" s="10"/>
     </row>
     <row r="238" spans="1:3" ht="15.75">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="8">
         <v>45063</v>
       </c>
     </row>
@@ -11797,28 +11801,28 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="17" t="s">
+      <c r="B239" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="8"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3" ht="15.75">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="9"/>
+      <c r="C240" s="10"/>
     </row>
     <row r="241" spans="1:3" ht="15.75">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="17" t="s">
+      <c r="B241" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="8">
         <v>45064</v>
       </c>
     </row>
@@ -11826,28 +11830,28 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="17" t="s">
+      <c r="B242" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C242" s="8"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="1:3" ht="15.75">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="17" t="s">
+      <c r="B243" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="9"/>
+      <c r="C243" s="10"/>
     </row>
     <row r="244" spans="1:3" ht="15.75">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="8">
         <v>45065</v>
       </c>
     </row>
@@ -11855,28 +11859,28 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="8"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" spans="1:3" ht="15.75">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C246" s="9"/>
+      <c r="C246" s="10"/>
     </row>
     <row r="247" spans="1:3" ht="15.75">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="8">
         <v>45066</v>
       </c>
     </row>
@@ -11884,28 +11888,28 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="8"/>
+      <c r="C248" s="9"/>
     </row>
     <row r="249" spans="1:3" ht="15.75">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="9"/>
+      <c r="C249" s="10"/>
     </row>
     <row r="250" spans="1:3" ht="15.75">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="8">
         <v>45067</v>
       </c>
     </row>
@@ -11913,28 +11917,28 @@
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="8"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" spans="1:3" ht="15.75">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="9"/>
+      <c r="C252" s="10"/>
     </row>
     <row r="253" spans="1:3" ht="15.75">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="8">
         <v>45068</v>
       </c>
     </row>
@@ -11942,28 +11946,28 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="8"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="1:3" ht="15.75">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="9"/>
+      <c r="C255" s="10"/>
     </row>
     <row r="256" spans="1:3" ht="15.75">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="8">
         <v>45069</v>
       </c>
     </row>
@@ -11971,28 +11975,28 @@
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="8"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="1:3" ht="15.75">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="9"/>
+      <c r="C258" s="10"/>
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="8">
         <v>45070</v>
       </c>
     </row>
@@ -12000,19 +12004,19 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="8"/>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="1:3" ht="15.75">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="9"/>
+      <c r="C261" s="10"/>
     </row>
     <row r="262" spans="1:3" ht="15.75">
       <c r="A262" s="1">
@@ -12021,7 +12025,7 @@
       <c r="B262" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="8">
         <v>45071</v>
       </c>
     </row>
@@ -12032,7 +12036,7 @@
       <c r="B263" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="8"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264" spans="1:3" ht="15.75">
       <c r="A264" s="1">
@@ -12041,7 +12045,7 @@
       <c r="B264" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="9"/>
+      <c r="C264" s="10"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="1">
@@ -12050,7 +12054,7 @@
       <c r="B265" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="8">
         <v>45072</v>
       </c>
     </row>
@@ -12061,7 +12065,7 @@
       <c r="B266" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="8"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="1:3" ht="15.75">
       <c r="A267" s="1">
@@ -12070,7 +12074,7 @@
       <c r="B267" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="9"/>
+      <c r="C267" s="10"/>
     </row>
     <row r="268" spans="1:3" ht="15.75">
       <c r="A268" s="1">
@@ -12079,7 +12083,7 @@
       <c r="B268" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="7">
+      <c r="C268" s="8">
         <v>45073</v>
       </c>
     </row>
@@ -12090,7 +12094,7 @@
       <c r="B269" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="8"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="1:3" ht="15.75">
       <c r="A270" s="1">
@@ -12099,7 +12103,7 @@
       <c r="B270" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="9"/>
+      <c r="C270" s="10"/>
     </row>
     <row r="271" spans="1:3" ht="15.75">
       <c r="A271" s="1">
@@ -12108,7 +12112,7 @@
       <c r="B271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="8">
         <v>45074</v>
       </c>
     </row>
@@ -12119,7 +12123,7 @@
       <c r="B272" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C272" s="8"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" spans="1:3" ht="15.75">
       <c r="A273" s="1">
@@ -12128,7 +12132,7 @@
       <c r="B273" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="9"/>
+      <c r="C273" s="10"/>
     </row>
     <row r="274" spans="1:3" ht="15.75">
       <c r="A274" s="1">
@@ -12137,7 +12141,7 @@
       <c r="B274" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="8">
         <v>45075</v>
       </c>
     </row>
@@ -12148,7 +12152,7 @@
       <c r="B275" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="8"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="1:3" ht="15.75">
       <c r="A276" s="1">
@@ -12157,7 +12161,7 @@
       <c r="B276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="9"/>
+      <c r="C276" s="10"/>
     </row>
     <row r="277" spans="1:3" ht="15.75">
       <c r="A277" s="1">
@@ -12166,7 +12170,7 @@
       <c r="B277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="8">
         <v>45076</v>
       </c>
     </row>
@@ -12177,7 +12181,7 @@
       <c r="B278" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="8"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="1:3" ht="15.75">
       <c r="A279" s="1">
@@ -12186,7 +12190,7 @@
       <c r="B279" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="9"/>
+      <c r="C279" s="10"/>
     </row>
     <row r="280" spans="1:3" ht="15.75">
       <c r="A280" s="1">
@@ -12195,7 +12199,7 @@
       <c r="B280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="8">
         <v>45077</v>
       </c>
     </row>
@@ -12206,7 +12210,7 @@
       <c r="B281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="8"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" spans="1:3" ht="15.75">
       <c r="A282" s="1">
@@ -12215,7 +12219,7 @@
       <c r="B282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="9"/>
+      <c r="C282" s="10"/>
     </row>
     <row r="283" spans="1:3" ht="15.75">
       <c r="A283" s="1">
@@ -12224,7 +12228,7 @@
       <c r="B283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="8">
         <v>45078</v>
       </c>
     </row>
@@ -12235,7 +12239,7 @@
       <c r="B284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="8"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="1:3" ht="15.75">
       <c r="A285" s="1">
@@ -12244,7 +12248,7 @@
       <c r="B285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="9"/>
+      <c r="C285" s="10"/>
     </row>
     <row r="286" spans="1:3" ht="15.75">
       <c r="A286" s="1">
@@ -12253,7 +12257,7 @@
       <c r="B286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="8">
         <v>45079</v>
       </c>
     </row>
@@ -12264,7 +12268,7 @@
       <c r="B287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="8"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" spans="1:3" ht="15.75">
       <c r="A288" s="1">
@@ -12273,7 +12277,7 @@
       <c r="B288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="9"/>
+      <c r="C288" s="10"/>
     </row>
     <row r="289" spans="1:3" ht="15.75">
       <c r="A289" s="1">
@@ -12282,7 +12286,7 @@
       <c r="B289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="8">
         <v>45080</v>
       </c>
     </row>
@@ -12293,7 +12297,7 @@
       <c r="B290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="8"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291" spans="1:3" ht="15.75">
       <c r="A291" s="1">
@@ -12302,7 +12306,7 @@
       <c r="B291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="9"/>
+      <c r="C291" s="10"/>
     </row>
     <row r="292" spans="1:3" ht="15.75">
       <c r="A292" s="1">
@@ -12311,7 +12315,7 @@
       <c r="B292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="8">
         <v>45081</v>
       </c>
     </row>
@@ -12322,7 +12326,7 @@
       <c r="B293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C293" s="8"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" spans="1:3" ht="15.75">
       <c r="A294" s="1">
@@ -12331,7 +12335,7 @@
       <c r="B294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="9"/>
+      <c r="C294" s="10"/>
     </row>
     <row r="295" spans="1:3" ht="15.75">
       <c r="A295" s="1">
@@ -12340,7 +12344,7 @@
       <c r="B295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="8">
         <v>45082</v>
       </c>
     </row>
@@ -12351,7 +12355,7 @@
       <c r="B296" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="8"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="1">
@@ -12360,7 +12364,7 @@
       <c r="B297" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="9"/>
+      <c r="C297" s="10"/>
     </row>
     <row r="298" spans="1:3" ht="15.75">
       <c r="A298" s="1">
@@ -12369,7 +12373,7 @@
       <c r="B298" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="8">
         <v>45083</v>
       </c>
     </row>
@@ -12380,7 +12384,7 @@
       <c r="B299" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="8"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" spans="1:3" ht="15.75">
       <c r="A300" s="1">
@@ -12389,7 +12393,7 @@
       <c r="B300" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="9"/>
+      <c r="C300" s="10"/>
     </row>
     <row r="301" spans="1:3" ht="15.75">
       <c r="A301" s="1">
@@ -36702,52 +36706,23 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C238:C240"/>
-    <mergeCell ref="C241:C243"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="C262:C264"/>
     <mergeCell ref="C219:C222"/>
     <mergeCell ref="C204:C206"/>
     <mergeCell ref="C207:C209"/>
@@ -36764,23 +36739,52 @@
     <mergeCell ref="C195:C197"/>
     <mergeCell ref="C213:C215"/>
     <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C238:C240"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542337CE-F8CF-4D5B-AE32-93E46707A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562C83E-D0E4-4434-B58F-C9D70434174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9091,7 +9091,7 @@
       <name val="EF Circular Latin"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9119,6 +9119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9187,7 +9193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9198,6 +9204,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9205,6 +9213,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9225,17 +9242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9552,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253:B261"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262:B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9580,7 +9587,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="16">
         <v>44997</v>
       </c>
     </row>
@@ -9591,7 +9598,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9600,7 +9607,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9609,7 +9616,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9618,7 +9625,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9627,7 +9634,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9636,7 +9643,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9645,7 +9652,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9654,7 +9661,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9663,7 +9670,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9672,7 +9679,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="16">
         <v>44998</v>
       </c>
     </row>
@@ -9683,7 +9690,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9692,7 +9699,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9701,7 +9708,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9710,7 +9717,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9719,7 +9726,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9728,7 +9735,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9737,7 +9744,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9746,7 +9753,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9755,7 +9762,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9764,7 +9771,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="16">
         <v>44999</v>
       </c>
     </row>
@@ -9775,7 +9782,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9784,7 +9791,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9793,7 +9800,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9802,7 +9809,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9811,7 +9818,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9820,7 +9827,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9829,7 +9836,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9838,7 +9845,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9847,7 +9854,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9856,7 +9863,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="19">
         <v>45000</v>
       </c>
     </row>
@@ -9867,7 +9874,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9876,7 +9883,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9885,7 +9892,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9894,7 +9901,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9903,7 +9910,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9912,7 +9919,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9921,7 +9928,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9930,7 +9937,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9939,7 +9946,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9948,7 +9955,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="19">
         <v>45001</v>
       </c>
     </row>
@@ -9959,7 +9966,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9968,7 +9975,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9977,7 +9984,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="16">
         <v>45002</v>
       </c>
     </row>
@@ -9988,7 +9995,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -9997,7 +10004,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -10006,7 +10013,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="16">
         <v>45004</v>
       </c>
     </row>
@@ -10017,7 +10024,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10026,7 +10033,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10035,7 +10042,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10044,7 +10051,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10053,7 +10060,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10062,7 +10069,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="16">
         <v>45005</v>
       </c>
     </row>
@@ -10073,7 +10080,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10082,7 +10089,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10091,7 +10098,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10100,7 +10107,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10109,7 +10116,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="18"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10118,7 +10125,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="16">
         <v>45006</v>
       </c>
     </row>
@@ -10129,7 +10136,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10138,7 +10145,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10147,7 +10154,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10156,7 +10163,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10165,7 +10172,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10174,7 +10181,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="16">
         <v>45007</v>
       </c>
     </row>
@@ -10185,7 +10192,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10194,7 +10201,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10203,7 +10210,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10212,7 +10219,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10221,7 +10228,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10230,7 +10237,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="16">
         <v>45008</v>
       </c>
     </row>
@@ -10241,7 +10248,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10250,7 +10257,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10259,7 +10266,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10268,7 +10275,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10277,7 +10284,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10286,7 +10293,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="16">
         <v>45009</v>
       </c>
     </row>
@@ -10297,7 +10304,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10306,7 +10313,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="12"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10315,7 +10322,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10324,7 +10331,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="17"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10333,7 +10340,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10342,7 +10349,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="10">
         <v>45011</v>
       </c>
     </row>
@@ -10353,7 +10360,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10362,7 +10369,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10371,7 +10378,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10380,7 +10387,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10389,7 +10396,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10398,7 +10405,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="10">
         <v>45012</v>
       </c>
     </row>
@@ -10409,7 +10416,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10418,7 +10425,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10427,7 +10434,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10436,7 +10443,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10445,7 +10452,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10454,7 +10461,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="10">
         <v>45013</v>
       </c>
     </row>
@@ -10465,7 +10472,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10474,7 +10481,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="10"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10483,7 +10490,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="10">
         <v>45014</v>
       </c>
     </row>
@@ -10494,7 +10501,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10503,7 +10510,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10512,7 +10519,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="10">
         <v>45015</v>
       </c>
     </row>
@@ -10523,7 +10530,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10532,7 +10539,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" s="12"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10541,7 +10548,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="10">
         <v>45016</v>
       </c>
     </row>
@@ -10552,7 +10559,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="9"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10561,7 +10568,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="12"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10570,7 +10577,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="10">
         <v>45019</v>
       </c>
     </row>
@@ -10581,7 +10588,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10590,7 +10597,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10599,7 +10606,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="10">
         <v>45020</v>
       </c>
     </row>
@@ -10610,7 +10617,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10619,7 +10626,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="12"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10628,7 +10635,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="10">
         <v>45023</v>
       </c>
     </row>
@@ -10639,7 +10646,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10648,7 +10655,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10657,7 +10664,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10666,7 +10673,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10675,7 +10682,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="10"/>
+      <c r="C119" s="12"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10684,7 +10691,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="10">
         <v>45026</v>
       </c>
     </row>
@@ -10695,7 +10702,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10704,7 +10711,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10713,7 +10720,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10722,7 +10729,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10731,7 +10738,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="10"/>
+      <c r="C125" s="12"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10740,7 +10747,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="10">
         <v>45027</v>
       </c>
     </row>
@@ -10751,7 +10758,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10760,7 +10767,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10769,7 +10776,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10778,7 +10785,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10787,7 +10794,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="12"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10796,7 +10803,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="10">
         <v>45028</v>
       </c>
     </row>
@@ -10807,7 +10814,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10816,7 +10823,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -10825,7 +10832,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="10">
         <v>45029</v>
       </c>
     </row>
@@ -10836,7 +10843,7 @@
       <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
@@ -10845,7 +10852,7 @@
       <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="12"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10854,7 +10861,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="10">
         <v>45030</v>
       </c>
     </row>
@@ -10865,7 +10872,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10874,7 +10881,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="10"/>
+      <c r="C140" s="12"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10883,7 +10890,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="10">
         <v>45031</v>
       </c>
     </row>
@@ -10894,7 +10901,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10903,7 +10910,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" s="12"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10912,7 +10919,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="10">
         <v>45032</v>
       </c>
     </row>
@@ -10923,7 +10930,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10932,7 +10939,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="10"/>
+      <c r="C146" s="12"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -10941,7 +10948,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="10">
         <v>45033</v>
       </c>
     </row>
@@ -10952,7 +10959,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10961,7 +10968,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="10"/>
+      <c r="C149" s="12"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -10970,7 +10977,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="10">
         <v>45034</v>
       </c>
     </row>
@@ -10981,7 +10988,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -10990,7 +10997,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="10"/>
+      <c r="C152" s="12"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -10999,7 +11006,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="10">
         <v>45035</v>
       </c>
     </row>
@@ -11010,7 +11017,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -11019,7 +11026,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="10"/>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -11028,7 +11035,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="17"/>
+      <c r="C156" s="15"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11037,7 +11044,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11046,7 +11053,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="10"/>
+      <c r="C158" s="12"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11055,7 +11062,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="17"/>
+      <c r="C159" s="15"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11064,7 +11071,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="9"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11073,7 +11080,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="10"/>
+      <c r="C161" s="12"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11082,7 +11089,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="15"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11091,7 +11098,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="9"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11100,7 +11107,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="10"/>
+      <c r="C164" s="12"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11109,7 +11116,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="15"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11118,7 +11125,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="9"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11127,7 +11134,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="10"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11136,7 +11143,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="15"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11145,7 +11152,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11154,7 +11161,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="10"/>
+      <c r="C170" s="12"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11163,7 +11170,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="10">
         <v>45041</v>
       </c>
     </row>
@@ -11174,7 +11181,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="9"/>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11183,7 +11190,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="10"/>
+      <c r="C173" s="12"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -11192,7 +11199,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="15"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11201,7 +11208,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11210,7 +11217,7 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="10"/>
+      <c r="C176" s="12"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
@@ -11219,7 +11226,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="17"/>
+      <c r="C177" s="15"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11228,7 +11235,7 @@
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
@@ -11237,7 +11244,7 @@
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="10"/>
+      <c r="C179" s="12"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
@@ -11246,7 +11253,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="10">
         <v>45044</v>
       </c>
     </row>
@@ -11257,7 +11264,7 @@
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="9"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
@@ -11266,7 +11273,7 @@
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="10"/>
+      <c r="C182" s="12"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
@@ -11275,7 +11282,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="8"/>
+      <c r="C183" s="10"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11284,7 +11291,7 @@
       <c r="B184" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="9"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
@@ -11293,7 +11300,7 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="10"/>
+      <c r="C185" s="12"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
@@ -11302,7 +11309,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="8"/>
+      <c r="C186" s="10"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11311,7 +11318,7 @@
       <c r="B187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
@@ -11320,7 +11327,7 @@
       <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="10"/>
+      <c r="C188" s="12"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -11330,7 +11337,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="8"/>
+      <c r="C189" s="10"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11339,7 +11346,7 @@
       <c r="B190" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
@@ -11348,7 +11355,7 @@
       <c r="B191" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="10"/>
+      <c r="C191" s="12"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
@@ -11357,7 +11364,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="8"/>
+      <c r="C192" s="10"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11366,7 +11373,7 @@
       <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="9"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" spans="1:3" ht="15.75">
       <c r="A194" s="1">
@@ -11375,7 +11382,7 @@
       <c r="B194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="10"/>
+      <c r="C194" s="12"/>
     </row>
     <row r="195" spans="1:3" ht="15.75">
       <c r="A195" s="1">
@@ -11384,7 +11391,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="8"/>
+      <c r="C195" s="10"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11393,7 +11400,7 @@
       <c r="B196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="9"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="1">
@@ -11402,7 +11409,7 @@
       <c r="B197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C197" s="10"/>
+      <c r="C197" s="12"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="1">
@@ -11411,7 +11418,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="8"/>
+      <c r="C198" s="10"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11420,7 +11427,7 @@
       <c r="B199" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="9"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="1">
@@ -11429,7 +11436,7 @@
       <c r="B200" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="10"/>
+      <c r="C200" s="12"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="1">
@@ -11438,7 +11445,7 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="10">
         <v>45051</v>
       </c>
     </row>
@@ -11449,7 +11456,7 @@
       <c r="B202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C202" s="9"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="1">
@@ -11458,7 +11465,7 @@
       <c r="B203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C203" s="10"/>
+      <c r="C203" s="12"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="1">
@@ -11467,7 +11474,7 @@
       <c r="B204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="10">
         <v>45052</v>
       </c>
     </row>
@@ -11478,7 +11485,7 @@
       <c r="B205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="9"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="1">
@@ -11487,7 +11494,7 @@
       <c r="B206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C206" s="10"/>
+      <c r="C206" s="12"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="1">
@@ -11496,7 +11503,7 @@
       <c r="B207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="10">
         <v>45053</v>
       </c>
     </row>
@@ -11507,7 +11514,7 @@
       <c r="B208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="9"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
       <c r="A209" s="1">
@@ -11516,7 +11523,7 @@
       <c r="B209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C209" s="10"/>
+      <c r="C209" s="12"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
       <c r="A210" s="1">
@@ -11525,7 +11532,7 @@
       <c r="B210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="10">
         <v>45054</v>
       </c>
     </row>
@@ -11536,7 +11543,7 @@
       <c r="B211" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="9"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
       <c r="A212" s="1">
@@ -11545,7 +11552,7 @@
       <c r="B212" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="10"/>
+      <c r="C212" s="12"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
       <c r="A213" s="1">
@@ -11554,7 +11561,7 @@
       <c r="B213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C213" s="8"/>
+      <c r="C213" s="10"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
       <c r="A214" s="1">
@@ -11563,7 +11570,7 @@
       <c r="B214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="9"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
       <c r="A215" s="1">
@@ -11572,7 +11579,7 @@
       <c r="B215" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C215" s="10"/>
+      <c r="C215" s="12"/>
     </row>
     <row r="216" spans="1:3" ht="15.75">
       <c r="A216" s="1">
@@ -11581,7 +11588,7 @@
       <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="10">
         <v>45056</v>
       </c>
     </row>
@@ -11592,7 +11599,7 @@
       <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="15.75">
       <c r="A218" s="1">
@@ -11601,7 +11608,7 @@
       <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C218" s="10"/>
+      <c r="C218" s="12"/>
     </row>
     <row r="219" spans="1:3" ht="15.75">
       <c r="A219" s="1">
@@ -11610,7 +11617,7 @@
       <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="10">
         <v>45057</v>
       </c>
     </row>
@@ -11621,7 +11628,7 @@
       <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C220" s="18"/>
+      <c r="C220" s="13"/>
     </row>
     <row r="221" spans="1:3" ht="15.75">
       <c r="A221" s="1">
@@ -11630,7 +11637,7 @@
       <c r="B221" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="18"/>
+      <c r="C221" s="13"/>
     </row>
     <row r="222" spans="1:3" ht="15.75">
       <c r="A222" s="1">
@@ -11639,7 +11646,7 @@
       <c r="B222" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="19"/>
+      <c r="C222" s="14"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
       <c r="A223" s="1">
@@ -11648,7 +11655,7 @@
       <c r="B223" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="10">
         <v>45058</v>
       </c>
     </row>
@@ -11659,7 +11666,7 @@
       <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="9"/>
+      <c r="C224" s="11"/>
     </row>
     <row r="225" spans="1:3" ht="15.75">
       <c r="A225" s="1">
@@ -11668,7 +11675,7 @@
       <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="10"/>
+      <c r="C225" s="12"/>
     </row>
     <row r="226" spans="1:3" ht="15.75">
       <c r="A226" s="1">
@@ -11677,7 +11684,7 @@
       <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="8">
+      <c r="C226" s="10">
         <v>45059</v>
       </c>
     </row>
@@ -11688,7 +11695,7 @@
       <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="9"/>
+      <c r="C227" s="11"/>
     </row>
     <row r="228" spans="1:3" ht="15.75">
       <c r="A228" s="1">
@@ -11697,7 +11704,7 @@
       <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="10"/>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" spans="1:3" ht="15.75">
       <c r="A229" s="1">
@@ -11706,7 +11713,7 @@
       <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="8">
+      <c r="C229" s="10">
         <v>45060</v>
       </c>
     </row>
@@ -11717,7 +11724,7 @@
       <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="9"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231" spans="1:3" ht="15.75">
       <c r="A231" s="1">
@@ -11726,7 +11733,7 @@
       <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C231" s="10"/>
+      <c r="C231" s="12"/>
     </row>
     <row r="232" spans="1:3" ht="15.75">
       <c r="A232" s="1">
@@ -11735,7 +11742,7 @@
       <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C232" s="10">
         <v>45061</v>
       </c>
     </row>
@@ -11746,7 +11753,7 @@
       <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="9"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234" spans="1:3" ht="15.75">
       <c r="A234" s="1">
@@ -11755,16 +11762,16 @@
       <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C234" s="10"/>
+      <c r="C234" s="12"/>
     </row>
     <row r="235" spans="1:3" ht="15.75">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="20" t="s">
+      <c r="B235" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="10">
         <v>45062</v>
       </c>
     </row>
@@ -11772,28 +11779,28 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="20" t="s">
+      <c r="B236" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="9"/>
+      <c r="C236" s="11"/>
     </row>
     <row r="237" spans="1:3" ht="15.75">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="20" t="s">
+      <c r="B237" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C237" s="10"/>
+      <c r="C237" s="12"/>
     </row>
     <row r="238" spans="1:3" ht="15.75">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="20" t="s">
+      <c r="B238" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="8">
+      <c r="C238" s="10">
         <v>45063</v>
       </c>
     </row>
@@ -11801,28 +11808,28 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="20" t="s">
+      <c r="B239" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="9"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240" spans="1:3" ht="15.75">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="20" t="s">
+      <c r="B240" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="10"/>
+      <c r="C240" s="12"/>
     </row>
     <row r="241" spans="1:3" ht="15.75">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="20" t="s">
+      <c r="B241" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C241" s="8">
+      <c r="C241" s="10">
         <v>45064</v>
       </c>
     </row>
@@ -11830,28 +11837,28 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="20" t="s">
+      <c r="B242" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C242" s="9"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" spans="1:3" ht="15.75">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="20" t="s">
+      <c r="B243" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="10"/>
+      <c r="C243" s="12"/>
     </row>
     <row r="244" spans="1:3" ht="15.75">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="20" t="s">
+      <c r="B244" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="10">
         <v>45065</v>
       </c>
     </row>
@@ -11859,28 +11866,28 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="20" t="s">
+      <c r="B245" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="9"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246" spans="1:3" ht="15.75">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="20" t="s">
+      <c r="B246" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C246" s="10"/>
+      <c r="C246" s="12"/>
     </row>
     <row r="247" spans="1:3" ht="15.75">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="20" t="s">
+      <c r="B247" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="8">
+      <c r="C247" s="10">
         <v>45066</v>
       </c>
     </row>
@@ -11888,19 +11895,19 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="B248" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="9"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249" spans="1:3" ht="15.75">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="20" t="s">
+      <c r="B249" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="10"/>
+      <c r="C249" s="12"/>
     </row>
     <row r="250" spans="1:3" ht="15.75">
       <c r="A250" s="1">
@@ -11909,7 +11916,7 @@
       <c r="B250" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="8">
+      <c r="C250" s="10">
         <v>45067</v>
       </c>
     </row>
@@ -11920,7 +11927,7 @@
       <c r="B251" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="9"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252" spans="1:3" ht="15.75">
       <c r="A252" s="1">
@@ -11929,16 +11936,16 @@
       <c r="B252" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="10"/>
+      <c r="C252" s="12"/>
     </row>
     <row r="253" spans="1:3" ht="15.75">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C253" s="8">
+      <c r="C253" s="10">
         <v>45068</v>
       </c>
     </row>
@@ -11946,28 +11953,28 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="9"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" spans="1:3" ht="15.75">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="10"/>
+      <c r="C255" s="12"/>
     </row>
     <row r="256" spans="1:3" ht="15.75">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="8">
+      <c r="C256" s="10">
         <v>45069</v>
       </c>
     </row>
@@ -11975,28 +11982,28 @@
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="9"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258" spans="1:3" ht="15.75">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="21" t="s">
+      <c r="B258" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="10"/>
+      <c r="C258" s="12"/>
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="21" t="s">
+      <c r="B259" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="8">
+      <c r="C259" s="10">
         <v>45070</v>
       </c>
     </row>
@@ -12004,28 +12011,28 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="21" t="s">
+      <c r="B260" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="9"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261" spans="1:3" ht="15.75">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="B261" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="10"/>
+      <c r="C261" s="12"/>
     </row>
     <row r="262" spans="1:3" ht="15.75">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C262" s="10">
         <v>45071</v>
       </c>
     </row>
@@ -12033,28 +12040,28 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="9"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264" spans="1:3" ht="15.75">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="10"/>
+      <c r="C264" s="12"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C265" s="8">
+      <c r="C265" s="10">
         <v>45072</v>
       </c>
     </row>
@@ -12062,28 +12069,28 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="9"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267" spans="1:3" ht="15.75">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="10"/>
+      <c r="C267" s="12"/>
     </row>
     <row r="268" spans="1:3" ht="15.75">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="8">
+      <c r="C268" s="10">
         <v>45073</v>
       </c>
     </row>
@@ -12091,19 +12098,19 @@
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="9"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270" spans="1:3" ht="15.75">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="10"/>
+      <c r="C270" s="12"/>
     </row>
     <row r="271" spans="1:3" ht="15.75">
       <c r="A271" s="1">
@@ -12112,7 +12119,7 @@
       <c r="B271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="8">
+      <c r="C271" s="10">
         <v>45074</v>
       </c>
     </row>
@@ -12123,7 +12130,7 @@
       <c r="B272" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C272" s="9"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273" spans="1:3" ht="15.75">
       <c r="A273" s="1">
@@ -12132,7 +12139,7 @@
       <c r="B273" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="10"/>
+      <c r="C273" s="12"/>
     </row>
     <row r="274" spans="1:3" ht="15.75">
       <c r="A274" s="1">
@@ -12141,7 +12148,7 @@
       <c r="B274" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="10">
         <v>45075</v>
       </c>
     </row>
@@ -12152,7 +12159,7 @@
       <c r="B275" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="9"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276" spans="1:3" ht="15.75">
       <c r="A276" s="1">
@@ -12161,7 +12168,7 @@
       <c r="B276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="10"/>
+      <c r="C276" s="12"/>
     </row>
     <row r="277" spans="1:3" ht="15.75">
       <c r="A277" s="1">
@@ -12170,7 +12177,7 @@
       <c r="B277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="8">
+      <c r="C277" s="10">
         <v>45076</v>
       </c>
     </row>
@@ -12181,7 +12188,7 @@
       <c r="B278" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="9"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279" spans="1:3" ht="15.75">
       <c r="A279" s="1">
@@ -12190,7 +12197,7 @@
       <c r="B279" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="10"/>
+      <c r="C279" s="12"/>
     </row>
     <row r="280" spans="1:3" ht="15.75">
       <c r="A280" s="1">
@@ -12199,7 +12206,7 @@
       <c r="B280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="8">
+      <c r="C280" s="10">
         <v>45077</v>
       </c>
     </row>
@@ -12210,7 +12217,7 @@
       <c r="B281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="9"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282" spans="1:3" ht="15.75">
       <c r="A282" s="1">
@@ -12219,7 +12226,7 @@
       <c r="B282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="10"/>
+      <c r="C282" s="12"/>
     </row>
     <row r="283" spans="1:3" ht="15.75">
       <c r="A283" s="1">
@@ -12228,7 +12235,7 @@
       <c r="B283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="8">
+      <c r="C283" s="10">
         <v>45078</v>
       </c>
     </row>
@@ -12239,7 +12246,7 @@
       <c r="B284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="9"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" spans="1:3" ht="15.75">
       <c r="A285" s="1">
@@ -12248,7 +12255,7 @@
       <c r="B285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="10"/>
+      <c r="C285" s="12"/>
     </row>
     <row r="286" spans="1:3" ht="15.75">
       <c r="A286" s="1">
@@ -12257,7 +12264,7 @@
       <c r="B286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="10">
         <v>45079</v>
       </c>
     </row>
@@ -12268,7 +12275,7 @@
       <c r="B287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="9"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288" spans="1:3" ht="15.75">
       <c r="A288" s="1">
@@ -12277,7 +12284,7 @@
       <c r="B288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="10"/>
+      <c r="C288" s="12"/>
     </row>
     <row r="289" spans="1:3" ht="15.75">
       <c r="A289" s="1">
@@ -12286,7 +12293,7 @@
       <c r="B289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="8">
+      <c r="C289" s="10">
         <v>45080</v>
       </c>
     </row>
@@ -12297,7 +12304,7 @@
       <c r="B290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="9"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291" spans="1:3" ht="15.75">
       <c r="A291" s="1">
@@ -12306,7 +12313,7 @@
       <c r="B291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="10"/>
+      <c r="C291" s="12"/>
     </row>
     <row r="292" spans="1:3" ht="15.75">
       <c r="A292" s="1">
@@ -12315,7 +12322,7 @@
       <c r="B292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="8">
+      <c r="C292" s="10">
         <v>45081</v>
       </c>
     </row>
@@ -12326,7 +12333,7 @@
       <c r="B293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C293" s="9"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294" spans="1:3" ht="15.75">
       <c r="A294" s="1">
@@ -12335,7 +12342,7 @@
       <c r="B294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="10"/>
+      <c r="C294" s="12"/>
     </row>
     <row r="295" spans="1:3" ht="15.75">
       <c r="A295" s="1">
@@ -12344,7 +12351,7 @@
       <c r="B295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="8">
+      <c r="C295" s="10">
         <v>45082</v>
       </c>
     </row>
@@ -12355,7 +12362,7 @@
       <c r="B296" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="9"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="1">
@@ -12364,7 +12371,7 @@
       <c r="B297" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="10"/>
+      <c r="C297" s="12"/>
     </row>
     <row r="298" spans="1:3" ht="15.75">
       <c r="A298" s="1">
@@ -12373,7 +12380,7 @@
       <c r="B298" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="8">
+      <c r="C298" s="10">
         <v>45083</v>
       </c>
     </row>
@@ -12384,7 +12391,7 @@
       <c r="B299" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="9"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300" spans="1:3" ht="15.75">
       <c r="A300" s="1">
@@ -12393,7 +12400,7 @@
       <c r="B300" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="10"/>
+      <c r="C300" s="12"/>
     </row>
     <row r="301" spans="1:3" ht="15.75">
       <c r="A301" s="1">
@@ -36706,23 +36713,52 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="C292:C294"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="C238:C240"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
     <mergeCell ref="C219:C222"/>
     <mergeCell ref="C204:C206"/>
     <mergeCell ref="C207:C209"/>
@@ -36739,52 +36775,23 @@
     <mergeCell ref="C195:C197"/>
     <mergeCell ref="C213:C215"/>
     <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C238:C240"/>
-    <mergeCell ref="C241:C243"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="C292:C294"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\Git\ingles\arquivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562C83E-D0E4-4434-B58F-C9D70434174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133898C5-84D2-4D80-A834-F0A1545D3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41433B18-DF96-4E6A-98C1-9F6F4C6BB2A4}"/>
   </bookViews>
@@ -9091,7 +9091,7 @@
       <name val="EF Circular Latin"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9125,6 +9125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9193,7 +9199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9206,6 +9212,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9213,15 +9220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9242,7 +9240,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9559,8 +9566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FA6857-B5B6-4301-A86D-7552E8D00242}">
   <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262:B270"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9587,7 +9594,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>44997</v>
       </c>
     </row>
@@ -9598,7 +9605,7 @@
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="1">
@@ -9607,7 +9614,7 @@
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1">
@@ -9616,7 +9623,7 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="1">
@@ -9625,7 +9632,7 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="1">
@@ -9634,7 +9641,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="1">
@@ -9643,7 +9650,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="1">
@@ -9652,7 +9659,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="1">
@@ -9661,7 +9668,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="1">
@@ -9670,7 +9677,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="1">
@@ -9679,7 +9686,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>44998</v>
       </c>
     </row>
@@ -9690,7 +9697,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1">
@@ -9699,7 +9706,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1">
@@ -9708,7 +9715,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1">
@@ -9717,7 +9724,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="1">
@@ -9726,7 +9733,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="1">
@@ -9735,7 +9742,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="1">
@@ -9744,7 +9751,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="1">
@@ -9753,7 +9760,7 @@
       <c r="B20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
@@ -9762,7 +9769,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="1">
@@ -9771,7 +9778,7 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>44999</v>
       </c>
     </row>
@@ -9782,7 +9789,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="1">
@@ -9791,7 +9798,7 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="1">
@@ -9800,7 +9807,7 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="1">
@@ -9809,7 +9816,7 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="1">
@@ -9818,7 +9825,7 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="1">
@@ -9827,7 +9834,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="1">
@@ -9836,7 +9843,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="1">
@@ -9845,7 +9852,7 @@
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="1">
@@ -9854,7 +9861,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="1">
@@ -9863,7 +9870,7 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>45000</v>
       </c>
     </row>
@@ -9874,7 +9881,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="1">
@@ -9883,7 +9890,7 @@
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="1">
@@ -9892,7 +9899,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="1">
@@ -9901,7 +9908,7 @@
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="1">
@@ -9910,7 +9917,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="1">
@@ -9919,7 +9926,7 @@
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="1">
@@ -9928,7 +9935,7 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="1">
@@ -9937,7 +9944,7 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="1">
@@ -9946,7 +9953,7 @@
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="1">
@@ -9955,7 +9962,7 @@
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="17">
         <v>45001</v>
       </c>
     </row>
@@ -9966,7 +9973,7 @@
       <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="1">
@@ -9975,7 +9982,7 @@
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="1">
@@ -9984,7 +9991,7 @@
       <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <v>45002</v>
       </c>
     </row>
@@ -9995,7 +10002,7 @@
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="1">
@@ -10004,7 +10011,7 @@
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="1">
@@ -10013,7 +10020,7 @@
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>45004</v>
       </c>
     </row>
@@ -10024,7 +10031,7 @@
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="1">
@@ -10033,7 +10040,7 @@
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="1">
@@ -10042,7 +10049,7 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="1">
@@ -10051,7 +10058,7 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="15"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="1">
@@ -10060,7 +10067,7 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="1">
@@ -10069,7 +10076,7 @@
       <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="14">
         <v>45005</v>
       </c>
     </row>
@@ -10080,7 +10087,7 @@
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="1">
@@ -10089,7 +10096,7 @@
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="1">
@@ -10098,7 +10105,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="1">
@@ -10107,7 +10114,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="1">
@@ -10116,7 +10123,7 @@
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="15.75">
       <c r="A60" s="1">
@@ -10125,7 +10132,7 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>45006</v>
       </c>
     </row>
@@ -10136,7 +10143,7 @@
       <c r="B61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
       <c r="A62" s="1">
@@ -10145,7 +10152,7 @@
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="1">
@@ -10154,7 +10161,7 @@
       <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="1">
@@ -10163,7 +10170,7 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="1">
@@ -10172,7 +10179,7 @@
       <c r="B65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="1">
@@ -10181,7 +10188,7 @@
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="14">
         <v>45007</v>
       </c>
     </row>
@@ -10192,7 +10199,7 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="1">
@@ -10201,7 +10208,7 @@
       <c r="B68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="1">
@@ -10210,7 +10217,7 @@
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="1">
@@ -10219,7 +10226,7 @@
       <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="1">
@@ -10228,7 +10235,7 @@
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="1">
@@ -10237,7 +10244,7 @@
       <c r="B72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="14">
         <v>45008</v>
       </c>
     </row>
@@ -10248,7 +10255,7 @@
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="1">
@@ -10257,7 +10264,7 @@
       <c r="B74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="17"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="1">
@@ -10266,7 +10273,7 @@
       <c r="B75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="1">
@@ -10275,7 +10282,7 @@
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="1">
@@ -10284,7 +10291,7 @@
       <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="18"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="1">
@@ -10293,7 +10300,7 @@
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="14">
         <v>45009</v>
       </c>
     </row>
@@ -10304,7 +10311,7 @@
       <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="17"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="1">
@@ -10313,7 +10320,7 @@
       <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="1">
@@ -10322,7 +10329,7 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="1">
@@ -10331,7 +10338,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="17"/>
+      <c r="C82" s="15"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="1">
@@ -10340,7 +10347,7 @@
       <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="18"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="1">
@@ -10349,7 +10356,7 @@
       <c r="B84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="11">
         <v>45011</v>
       </c>
     </row>
@@ -10360,7 +10367,7 @@
       <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="11"/>
+      <c r="C85" s="12"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
@@ -10369,7 +10376,7 @@
       <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="11"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="1">
@@ -10378,7 +10385,7 @@
       <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="1">
@@ -10387,7 +10394,7 @@
       <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="11"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="1">
@@ -10396,7 +10403,7 @@
       <c r="B89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="12"/>
+      <c r="C89" s="13"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="1">
@@ -10405,7 +10412,7 @@
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="11">
         <v>45012</v>
       </c>
     </row>
@@ -10416,7 +10423,7 @@
       <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="11"/>
+      <c r="C91" s="12"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="1">
@@ -10425,7 +10432,7 @@
       <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="11"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
@@ -10434,7 +10441,7 @@
       <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="11"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="1">
@@ -10443,7 +10450,7 @@
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="11"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="1">
@@ -10452,7 +10459,7 @@
       <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="12"/>
+      <c r="C95" s="13"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="1">
@@ -10461,7 +10468,7 @@
       <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="11">
         <v>45013</v>
       </c>
     </row>
@@ -10472,7 +10479,7 @@
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="12"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="1">
@@ -10481,7 +10488,7 @@
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="12"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" spans="1:3" ht="15.75">
       <c r="A99" s="1">
@@ -10490,7 +10497,7 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="11">
         <v>45014</v>
       </c>
     </row>
@@ -10501,7 +10508,7 @@
       <c r="B100" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="11"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="1:3" ht="15.75">
       <c r="A101" s="1">
@@ -10510,7 +10517,7 @@
       <c r="B101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="12"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="1">
@@ -10519,7 +10526,7 @@
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="11">
         <v>45015</v>
       </c>
     </row>
@@ -10530,7 +10537,7 @@
       <c r="B103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="11"/>
+      <c r="C103" s="12"/>
     </row>
     <row r="104" spans="1:3" ht="15.75">
       <c r="A104" s="1">
@@ -10539,7 +10546,7 @@
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="12"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" spans="1:3" ht="15.75">
       <c r="A105" s="1">
@@ -10548,7 +10555,7 @@
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="11">
         <v>45016</v>
       </c>
     </row>
@@ -10559,7 +10566,7 @@
       <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="11"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="1:3" ht="15.75">
       <c r="A107" s="1">
@@ -10568,7 +10575,7 @@
       <c r="B107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="12"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" ht="15.75">
       <c r="A108" s="1">
@@ -10577,7 +10584,7 @@
       <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="11">
         <v>45019</v>
       </c>
     </row>
@@ -10588,7 +10595,7 @@
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="12"/>
     </row>
     <row r="110" spans="1:3" ht="15.75">
       <c r="A110" s="1">
@@ -10597,7 +10604,7 @@
       <c r="B110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="12"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" ht="15.75">
       <c r="A111" s="1">
@@ -10606,7 +10613,7 @@
       <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="11">
         <v>45020</v>
       </c>
     </row>
@@ -10617,7 +10624,7 @@
       <c r="B112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="11"/>
+      <c r="C112" s="12"/>
     </row>
     <row r="113" spans="1:3" ht="15.75">
       <c r="A113" s="1">
@@ -10626,7 +10633,7 @@
       <c r="B113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="12"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="15.75">
       <c r="A114" s="1">
@@ -10635,7 +10642,7 @@
       <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="11">
         <v>45023</v>
       </c>
     </row>
@@ -10646,7 +10653,7 @@
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="11"/>
+      <c r="C115" s="12"/>
     </row>
     <row r="116" spans="1:3" ht="15.75">
       <c r="A116" s="1">
@@ -10655,7 +10662,7 @@
       <c r="B116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="11"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="1:3" ht="15.75">
       <c r="A117" s="1">
@@ -10664,7 +10671,7 @@
       <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="11"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="118" spans="1:3" ht="15.75">
       <c r="A118" s="1">
@@ -10673,7 +10680,7 @@
       <c r="B118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="11"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="1:3" ht="15.75">
       <c r="A119" s="1">
@@ -10682,7 +10689,7 @@
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="12"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="1:3" ht="15.75">
       <c r="A120" s="1">
@@ -10691,7 +10698,7 @@
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="11">
         <v>45026</v>
       </c>
     </row>
@@ -10702,7 +10709,7 @@
       <c r="B121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="11"/>
+      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="1:3" ht="15.75">
       <c r="A122" s="1">
@@ -10711,7 +10718,7 @@
       <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="11"/>
+      <c r="C122" s="12"/>
     </row>
     <row r="123" spans="1:3" ht="15.75">
       <c r="A123" s="1">
@@ -10720,7 +10727,7 @@
       <c r="B123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="11"/>
+      <c r="C123" s="12"/>
     </row>
     <row r="124" spans="1:3" ht="15.75">
       <c r="A124" s="1">
@@ -10729,7 +10736,7 @@
       <c r="B124" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="11"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="1:3" ht="15.75">
       <c r="A125" s="1">
@@ -10738,7 +10745,7 @@
       <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="12"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" spans="1:3" ht="15.75">
       <c r="A126" s="1">
@@ -10747,7 +10754,7 @@
       <c r="B126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="11">
         <v>45027</v>
       </c>
     </row>
@@ -10758,7 +10765,7 @@
       <c r="B127" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="11"/>
+      <c r="C127" s="12"/>
     </row>
     <row r="128" spans="1:3" ht="15.75">
       <c r="A128" s="1">
@@ -10767,7 +10774,7 @@
       <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="12"/>
     </row>
     <row r="129" spans="1:3" ht="15.75">
       <c r="A129" s="1">
@@ -10776,7 +10783,7 @@
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="11"/>
+      <c r="C129" s="12"/>
     </row>
     <row r="130" spans="1:3" ht="15.75">
       <c r="A130" s="1">
@@ -10785,7 +10792,7 @@
       <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="11"/>
+      <c r="C130" s="12"/>
     </row>
     <row r="131" spans="1:3" ht="15.75">
       <c r="A131" s="1">
@@ -10794,7 +10801,7 @@
       <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="12"/>
+      <c r="C131" s="13"/>
     </row>
     <row r="132" spans="1:3" ht="15.75">
       <c r="A132" s="1">
@@ -10803,7 +10810,7 @@
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="11">
         <v>45028</v>
       </c>
     </row>
@@ -10814,7 +10821,7 @@
       <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="11"/>
+      <c r="C133" s="12"/>
     </row>
     <row r="134" spans="1:3" ht="15.75">
       <c r="A134" s="1">
@@ -10823,7 +10830,7 @@
       <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="12"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="1">
@@ -10832,7 +10839,7 @@
       <c r="B135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="11">
         <v>45029</v>
       </c>
     </row>
@@ -10843,7 +10850,7 @@
       <c r="B136" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="11"/>
+      <c r="C136" s="12"/>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="1">
@@ -10852,7 +10859,7 @@
       <c r="B137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="12"/>
+      <c r="C137" s="13"/>
     </row>
     <row r="138" spans="1:3" ht="15.75">
       <c r="A138" s="1">
@@ -10861,7 +10868,7 @@
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="11">
         <v>45030</v>
       </c>
     </row>
@@ -10872,7 +10879,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="11"/>
+      <c r="C139" s="12"/>
     </row>
     <row r="140" spans="1:3" ht="15.75">
       <c r="A140" s="1">
@@ -10881,7 +10888,7 @@
       <c r="B140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="12"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" spans="1:3" ht="15.75">
       <c r="A141" s="1">
@@ -10890,7 +10897,7 @@
       <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="11">
         <v>45031</v>
       </c>
     </row>
@@ -10901,7 +10908,7 @@
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="11"/>
+      <c r="C142" s="12"/>
     </row>
     <row r="143" spans="1:3" ht="15.75">
       <c r="A143" s="1">
@@ -10910,7 +10917,7 @@
       <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="12"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="1:3" ht="15.75">
       <c r="A144" s="1">
@@ -10919,7 +10926,7 @@
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="11">
         <v>45032</v>
       </c>
     </row>
@@ -10930,7 +10937,7 @@
       <c r="B145" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="11"/>
+      <c r="C145" s="12"/>
     </row>
     <row r="146" spans="1:3" ht="15.75">
       <c r="A146" s="1">
@@ -10939,7 +10946,7 @@
       <c r="B146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="12"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" spans="1:3" ht="15.75">
       <c r="A147" s="1">
@@ -10948,7 +10955,7 @@
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="11">
         <v>45033</v>
       </c>
     </row>
@@ -10959,7 +10966,7 @@
       <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="11"/>
+      <c r="C148" s="12"/>
     </row>
     <row r="149" spans="1:3" ht="15.75">
       <c r="A149" s="1">
@@ -10968,7 +10975,7 @@
       <c r="B149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="12"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" ht="15.75">
       <c r="A150" s="1">
@@ -10977,7 +10984,7 @@
       <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="11">
         <v>45034</v>
       </c>
     </row>
@@ -10988,7 +10995,7 @@
       <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="11"/>
+      <c r="C151" s="12"/>
     </row>
     <row r="152" spans="1:3" ht="15.75">
       <c r="A152" s="1">
@@ -10997,7 +11004,7 @@
       <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="12"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="1:3" ht="15.75">
       <c r="A153" s="1">
@@ -11006,7 +11013,7 @@
       <c r="B153" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="11">
         <v>45035</v>
       </c>
     </row>
@@ -11017,7 +11024,7 @@
       <c r="B154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="11"/>
+      <c r="C154" s="12"/>
     </row>
     <row r="155" spans="1:3" ht="15.75">
       <c r="A155" s="1">
@@ -11026,7 +11033,7 @@
       <c r="B155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="12"/>
+      <c r="C155" s="13"/>
     </row>
     <row r="156" spans="1:3" ht="15.75">
       <c r="A156" s="1">
@@ -11035,7 +11042,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="15"/>
+      <c r="C156" s="20"/>
     </row>
     <row r="157" spans="1:3" ht="15.75">
       <c r="A157" s="1">
@@ -11044,7 +11051,7 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="11"/>
+      <c r="C157" s="12"/>
     </row>
     <row r="158" spans="1:3" ht="15.75">
       <c r="A158" s="1">
@@ -11053,7 +11060,7 @@
       <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="12"/>
+      <c r="C158" s="13"/>
     </row>
     <row r="159" spans="1:3" ht="15.75">
       <c r="A159" s="1">
@@ -11062,7 +11069,7 @@
       <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="15"/>
+      <c r="C159" s="20"/>
     </row>
     <row r="160" spans="1:3" ht="15.75">
       <c r="A160" s="1">
@@ -11071,7 +11078,7 @@
       <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="11"/>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="1:3" ht="15.75">
       <c r="A161" s="1">
@@ -11080,7 +11087,7 @@
       <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="12"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="1">
@@ -11089,7 +11096,7 @@
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="15"/>
+      <c r="C162" s="20"/>
     </row>
     <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="1">
@@ -11098,7 +11105,7 @@
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="11"/>
+      <c r="C163" s="12"/>
     </row>
     <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="1">
@@ -11107,7 +11114,7 @@
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="12"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="1">
@@ -11116,7 +11123,7 @@
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="15"/>
+      <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="1">
@@ -11125,7 +11132,7 @@
       <c r="B166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="11"/>
+      <c r="C166" s="12"/>
     </row>
     <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="1">
@@ -11134,7 +11141,7 @@
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="12"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="1">
@@ -11143,7 +11150,7 @@
       <c r="B168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="15"/>
+      <c r="C168" s="20"/>
     </row>
     <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="1">
@@ -11152,7 +11159,7 @@
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="11"/>
+      <c r="C169" s="12"/>
     </row>
     <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="1">
@@ -11161,7 +11168,7 @@
       <c r="B170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="12"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="1">
@@ -11170,7 +11177,7 @@
       <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="11">
         <v>45041</v>
       </c>
     </row>
@@ -11181,7 +11188,7 @@
       <c r="B172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="11"/>
+      <c r="C172" s="12"/>
     </row>
     <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="1">
@@ -11190,7 +11197,7 @@
       <c r="B173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="12"/>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" spans="1:3" ht="15.75">
       <c r="A174" s="1">
@@ -11199,7 +11206,7 @@
       <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="15"/>
+      <c r="C174" s="20"/>
     </row>
     <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="1">
@@ -11208,7 +11215,7 @@
       <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="11"/>
+      <c r="C175" s="12"/>
     </row>
     <row r="176" spans="1:3" ht="15.75">
       <c r="A176" s="1">
@@ -11217,7 +11224,7 @@
       <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="12"/>
+      <c r="C176" s="13"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="1">
@@ -11226,7 +11233,7 @@
       <c r="B177" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="15"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="1">
@@ -11235,7 +11242,7 @@
       <c r="B178" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="11"/>
+      <c r="C178" s="12"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="1">
@@ -11244,7 +11251,7 @@
       <c r="B179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C179" s="12"/>
+      <c r="C179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="1">
@@ -11253,7 +11260,7 @@
       <c r="B180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="11">
         <v>45044</v>
       </c>
     </row>
@@ -11264,7 +11271,7 @@
       <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="11"/>
+      <c r="C181" s="12"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="1">
@@ -11273,7 +11280,7 @@
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="12"/>
+      <c r="C182" s="13"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="1">
@@ -11282,7 +11289,7 @@
       <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C183" s="10"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="1">
@@ -11291,7 +11298,7 @@
       <c r="B184" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="11"/>
+      <c r="C184" s="12"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="1">
@@ -11300,7 +11307,7 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="12"/>
+      <c r="C185" s="13"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="1">
@@ -11309,7 +11316,7 @@
       <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="10"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="1">
@@ -11318,7 +11325,7 @@
       <c r="B187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="11"/>
+      <c r="C187" s="12"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="1">
@@ -11327,7 +11334,7 @@
       <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="12"/>
+      <c r="C188" s="13"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -11337,7 +11344,7 @@
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="10"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="1">
@@ -11346,7 +11353,7 @@
       <c r="B190" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="11"/>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="1">
@@ -11355,7 +11362,7 @@
       <c r="B191" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="12"/>
+      <c r="C191" s="13"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="1">
@@ -11364,7 +11371,7 @@
       <c r="B192" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="10"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="15.75">
       <c r="A193" s="1">
@@ -11373,7 +11380,7 @@
       <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="11"/>
+      <c r="C193" s="12"/>
     </row>
     <row r="194" spans="1:3" ht="15.75">
       <c r="A194" s="1">
@@ -11382,7 +11389,7 @@
       <c r="B194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="12"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" spans="1:3" ht="15.75">
       <c r="A195" s="1">
@@ -11391,7 +11398,7 @@
       <c r="B195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="10"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" spans="1:3" ht="15.75">
       <c r="A196" s="1">
@@ -11400,7 +11407,7 @@
       <c r="B196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="11"/>
+      <c r="C196" s="12"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="1">
@@ -11409,7 +11416,7 @@
       <c r="B197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C197" s="12"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="1">
@@ -11418,7 +11425,7 @@
       <c r="B198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="10"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="1">
@@ -11427,7 +11434,7 @@
       <c r="B199" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="11"/>
+      <c r="C199" s="12"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="1">
@@ -11436,7 +11443,7 @@
       <c r="B200" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="12"/>
+      <c r="C200" s="13"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="1">
@@ -11445,7 +11452,7 @@
       <c r="B201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C201" s="10">
+      <c r="C201" s="11">
         <v>45051</v>
       </c>
     </row>
@@ -11456,7 +11463,7 @@
       <c r="B202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C202" s="11"/>
+      <c r="C202" s="12"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="1">
@@ -11465,7 +11472,7 @@
       <c r="B203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C203" s="12"/>
+      <c r="C203" s="13"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="1">
@@ -11474,7 +11481,7 @@
       <c r="B204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="10">
+      <c r="C204" s="11">
         <v>45052</v>
       </c>
     </row>
@@ -11485,7 +11492,7 @@
       <c r="B205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="11"/>
+      <c r="C205" s="12"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="1">
@@ -11494,7 +11501,7 @@
       <c r="B206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C206" s="12"/>
+      <c r="C206" s="13"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="1">
@@ -11503,7 +11510,7 @@
       <c r="B207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="10">
+      <c r="C207" s="11">
         <v>45053</v>
       </c>
     </row>
@@ -11514,7 +11521,7 @@
       <c r="B208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="11"/>
+      <c r="C208" s="12"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
       <c r="A209" s="1">
@@ -11523,7 +11530,7 @@
       <c r="B209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C209" s="12"/>
+      <c r="C209" s="13"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
       <c r="A210" s="1">
@@ -11532,7 +11539,7 @@
       <c r="B210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C210" s="10">
+      <c r="C210" s="11">
         <v>45054</v>
       </c>
     </row>
@@ -11543,7 +11550,7 @@
       <c r="B211" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="11"/>
+      <c r="C211" s="12"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
       <c r="A212" s="1">
@@ -11552,7 +11559,7 @@
       <c r="B212" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="12"/>
+      <c r="C212" s="13"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
       <c r="A213" s="1">
@@ -11561,7 +11568,7 @@
       <c r="B213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C213" s="10"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
       <c r="A214" s="1">
@@ -11570,7 +11577,7 @@
       <c r="B214" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="11"/>
+      <c r="C214" s="12"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
       <c r="A215" s="1">
@@ -11579,7 +11586,7 @@
       <c r="B215" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C215" s="12"/>
+      <c r="C215" s="13"/>
     </row>
     <row r="216" spans="1:3" ht="15.75">
       <c r="A216" s="1">
@@ -11588,7 +11595,7 @@
       <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="11">
         <v>45056</v>
       </c>
     </row>
@@ -11599,7 +11606,7 @@
       <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C217" s="11"/>
+      <c r="C217" s="12"/>
     </row>
     <row r="218" spans="1:3" ht="15.75">
       <c r="A218" s="1">
@@ -11608,7 +11615,7 @@
       <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C218" s="12"/>
+      <c r="C218" s="13"/>
     </row>
     <row r="219" spans="1:3" ht="15.75">
       <c r="A219" s="1">
@@ -11617,7 +11624,7 @@
       <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="11">
         <v>45057</v>
       </c>
     </row>
@@ -11628,7 +11635,7 @@
       <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C220" s="13"/>
+      <c r="C220" s="21"/>
     </row>
     <row r="221" spans="1:3" ht="15.75">
       <c r="A221" s="1">
@@ -11637,7 +11644,7 @@
       <c r="B221" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="13"/>
+      <c r="C221" s="21"/>
     </row>
     <row r="222" spans="1:3" ht="15.75">
       <c r="A222" s="1">
@@ -11646,7 +11653,7 @@
       <c r="B222" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="14"/>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="1:3" ht="15.75">
       <c r="A223" s="1">
@@ -11655,7 +11662,7 @@
       <c r="B223" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="10">
+      <c r="C223" s="11">
         <v>45058</v>
       </c>
     </row>
@@ -11666,7 +11673,7 @@
       <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="11"/>
+      <c r="C224" s="12"/>
     </row>
     <row r="225" spans="1:3" ht="15.75">
       <c r="A225" s="1">
@@ -11675,7 +11682,7 @@
       <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="12"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3" ht="15.75">
       <c r="A226" s="1">
@@ -11684,7 +11691,7 @@
       <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="10">
+      <c r="C226" s="11">
         <v>45059</v>
       </c>
     </row>
@@ -11695,7 +11702,7 @@
       <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="11"/>
+      <c r="C227" s="12"/>
     </row>
     <row r="228" spans="1:3" ht="15.75">
       <c r="A228" s="1">
@@ -11704,7 +11711,7 @@
       <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="12"/>
+      <c r="C228" s="13"/>
     </row>
     <row r="229" spans="1:3" ht="15.75">
       <c r="A229" s="1">
@@ -11713,7 +11720,7 @@
       <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="10">
+      <c r="C229" s="11">
         <v>45060</v>
       </c>
     </row>
@@ -11724,7 +11731,7 @@
       <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="11"/>
+      <c r="C230" s="12"/>
     </row>
     <row r="231" spans="1:3" ht="15.75">
       <c r="A231" s="1">
@@ -11733,7 +11740,7 @@
       <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C231" s="12"/>
+      <c r="C231" s="13"/>
     </row>
     <row r="232" spans="1:3" ht="15.75">
       <c r="A232" s="1">
@@ -11742,7 +11749,7 @@
       <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C232" s="10">
+      <c r="C232" s="11">
         <v>45061</v>
       </c>
     </row>
@@ -11753,7 +11760,7 @@
       <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="11"/>
+      <c r="C233" s="12"/>
     </row>
     <row r="234" spans="1:3" ht="15.75">
       <c r="A234" s="1">
@@ -11762,7 +11769,7 @@
       <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C234" s="12"/>
+      <c r="C234" s="13"/>
     </row>
     <row r="235" spans="1:3" ht="15.75">
       <c r="A235" s="1">
@@ -11771,7 +11778,7 @@
       <c r="B235" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C235" s="10">
+      <c r="C235" s="11">
         <v>45062</v>
       </c>
     </row>
@@ -11782,7 +11789,7 @@
       <c r="B236" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="11"/>
+      <c r="C236" s="12"/>
     </row>
     <row r="237" spans="1:3" ht="15.75">
       <c r="A237" s="1">
@@ -11791,7 +11798,7 @@
       <c r="B237" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C237" s="12"/>
+      <c r="C237" s="13"/>
     </row>
     <row r="238" spans="1:3" ht="15.75">
       <c r="A238" s="1">
@@ -11800,7 +11807,7 @@
       <c r="B238" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="10">
+      <c r="C238" s="11">
         <v>45063</v>
       </c>
     </row>
@@ -11811,7 +11818,7 @@
       <c r="B239" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="11"/>
+      <c r="C239" s="12"/>
     </row>
     <row r="240" spans="1:3" ht="15.75">
       <c r="A240" s="1">
@@ -11820,7 +11827,7 @@
       <c r="B240" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="12"/>
+      <c r="C240" s="13"/>
     </row>
     <row r="241" spans="1:3" ht="15.75">
       <c r="A241" s="1">
@@ -11829,7 +11836,7 @@
       <c r="B241" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C241" s="10">
+      <c r="C241" s="11">
         <v>45064</v>
       </c>
     </row>
@@ -11840,7 +11847,7 @@
       <c r="B242" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C242" s="11"/>
+      <c r="C242" s="12"/>
     </row>
     <row r="243" spans="1:3" ht="15.75">
       <c r="A243" s="1">
@@ -11849,7 +11856,7 @@
       <c r="B243" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="12"/>
+      <c r="C243" s="13"/>
     </row>
     <row r="244" spans="1:3" ht="15.75">
       <c r="A244" s="1">
@@ -11858,7 +11865,7 @@
       <c r="B244" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="10">
+      <c r="C244" s="11">
         <v>45065</v>
       </c>
     </row>
@@ -11869,7 +11876,7 @@
       <c r="B245" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="11"/>
+      <c r="C245" s="12"/>
     </row>
     <row r="246" spans="1:3" ht="15.75">
       <c r="A246" s="1">
@@ -11878,7 +11885,7 @@
       <c r="B246" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C246" s="12"/>
+      <c r="C246" s="13"/>
     </row>
     <row r="247" spans="1:3" ht="15.75">
       <c r="A247" s="1">
@@ -11887,7 +11894,7 @@
       <c r="B247" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="10">
+      <c r="C247" s="11">
         <v>45066</v>
       </c>
     </row>
@@ -11898,7 +11905,7 @@
       <c r="B248" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="11"/>
+      <c r="C248" s="12"/>
     </row>
     <row r="249" spans="1:3" ht="15.75">
       <c r="A249" s="1">
@@ -11907,7 +11914,7 @@
       <c r="B249" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="12"/>
+      <c r="C249" s="13"/>
     </row>
     <row r="250" spans="1:3" ht="15.75">
       <c r="A250" s="1">
@@ -11916,7 +11923,7 @@
       <c r="B250" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="10">
+      <c r="C250" s="11">
         <v>45067</v>
       </c>
     </row>
@@ -11927,7 +11934,7 @@
       <c r="B251" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="11"/>
+      <c r="C251" s="12"/>
     </row>
     <row r="252" spans="1:3" ht="15.75">
       <c r="A252" s="1">
@@ -11936,7 +11943,7 @@
       <c r="B252" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="12"/>
+      <c r="C252" s="13"/>
     </row>
     <row r="253" spans="1:3" ht="15.75">
       <c r="A253" s="1">
@@ -11945,7 +11952,7 @@
       <c r="B253" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C253" s="10">
+      <c r="C253" s="11">
         <v>45068</v>
       </c>
     </row>
@@ -11956,7 +11963,7 @@
       <c r="B254" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="11"/>
+      <c r="C254" s="12"/>
     </row>
     <row r="255" spans="1:3" ht="15.75">
       <c r="A255" s="1">
@@ -11965,7 +11972,7 @@
       <c r="B255" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="12"/>
+      <c r="C255" s="13"/>
     </row>
     <row r="256" spans="1:3" ht="15.75">
       <c r="A256" s="1">
@@ -11974,7 +11981,7 @@
       <c r="B256" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="10">
+      <c r="C256" s="11">
         <v>45069</v>
       </c>
     </row>
@@ -11985,7 +11992,7 @@
       <c r="B257" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="11"/>
+      <c r="C257" s="12"/>
     </row>
     <row r="258" spans="1:3" ht="15.75">
       <c r="A258" s="1">
@@ -11994,7 +12001,7 @@
       <c r="B258" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="12"/>
+      <c r="C258" s="13"/>
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="1">
@@ -12003,7 +12010,7 @@
       <c r="B259" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="10">
+      <c r="C259" s="11">
         <v>45070</v>
       </c>
     </row>
@@ -12014,7 +12021,7 @@
       <c r="B260" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="11"/>
+      <c r="C260" s="12"/>
     </row>
     <row r="261" spans="1:3" ht="15.75">
       <c r="A261" s="1">
@@ -12023,16 +12030,16 @@
       <c r="B261" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="12"/>
+      <c r="C261" s="13"/>
     </row>
     <row r="262" spans="1:3" ht="15.75">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="22" t="s">
+      <c r="B262" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="10">
+      <c r="C262" s="11">
         <v>45071</v>
       </c>
     </row>
@@ -12040,28 +12047,28 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="22" t="s">
+      <c r="B263" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="11"/>
+      <c r="C263" s="12"/>
     </row>
     <row r="264" spans="1:3" ht="15.75">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="22" t="s">
+      <c r="B264" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="12"/>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C265" s="10">
+      <c r="C265" s="11">
         <v>45072</v>
       </c>
     </row>
@@ -12069,28 +12076,28 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="22" t="s">
+      <c r="B266" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="11"/>
+      <c r="C266" s="12"/>
     </row>
     <row r="267" spans="1:3" ht="15.75">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="22" t="s">
+      <c r="B267" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="12"/>
+      <c r="C267" s="13"/>
     </row>
     <row r="268" spans="1:3" ht="15.75">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="22" t="s">
+      <c r="B268" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="10">
+      <c r="C268" s="11">
         <v>45073</v>
       </c>
     </row>
@@ -12098,28 +12105,28 @@
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="22" t="s">
+      <c r="B269" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="11"/>
+      <c r="C269" s="12"/>
     </row>
     <row r="270" spans="1:3" ht="15.75">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="22" t="s">
+      <c r="B270" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="12"/>
+      <c r="C270" s="13"/>
     </row>
     <row r="271" spans="1:3" ht="15.75">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="10">
+      <c r="C271" s="11">
         <v>45074</v>
       </c>
     </row>
@@ -12127,28 +12134,28 @@
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C272" s="11"/>
+      <c r="C272" s="12"/>
     </row>
     <row r="273" spans="1:3" ht="15.75">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="12"/>
+      <c r="C273" s="13"/>
     </row>
     <row r="274" spans="1:3" ht="15.75">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C274" s="10">
+      <c r="C274" s="11">
         <v>45075</v>
       </c>
     </row>
@@ -12156,28 +12163,28 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="11"/>
+      <c r="C275" s="12"/>
     </row>
     <row r="276" spans="1:3" ht="15.75">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="12"/>
+      <c r="C276" s="13"/>
     </row>
     <row r="277" spans="1:3" ht="15.75">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="11">
         <v>45076</v>
       </c>
     </row>
@@ -12185,19 +12192,19 @@
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="11"/>
+      <c r="C278" s="12"/>
     </row>
     <row r="279" spans="1:3" ht="15.75">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="12"/>
+      <c r="C279" s="13"/>
     </row>
     <row r="280" spans="1:3" ht="15.75">
       <c r="A280" s="1">
@@ -12206,7 +12213,7 @@
       <c r="B280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="10">
+      <c r="C280" s="11">
         <v>45077</v>
       </c>
     </row>
@@ -12217,7 +12224,7 @@
       <c r="B281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="11"/>
+      <c r="C281" s="12"/>
     </row>
     <row r="282" spans="1:3" ht="15.75">
       <c r="A282" s="1">
@@ -12226,7 +12233,7 @@
       <c r="B282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="12"/>
+      <c r="C282" s="13"/>
     </row>
     <row r="283" spans="1:3" ht="15.75">
       <c r="A283" s="1">
@@ -12235,7 +12242,7 @@
       <c r="B283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="10">
+      <c r="C283" s="11">
         <v>45078</v>
       </c>
     </row>
@@ -12246,7 +12253,7 @@
       <c r="B284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="11"/>
+      <c r="C284" s="12"/>
     </row>
     <row r="285" spans="1:3" ht="15.75">
       <c r="A285" s="1">
@@ -12255,7 +12262,7 @@
       <c r="B285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="12"/>
+      <c r="C285" s="13"/>
     </row>
     <row r="286" spans="1:3" ht="15.75">
       <c r="A286" s="1">
@@ -12264,7 +12271,7 @@
       <c r="B286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="10">
+      <c r="C286" s="11">
         <v>45079</v>
       </c>
     </row>
@@ -12275,7 +12282,7 @@
       <c r="B287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="11"/>
+      <c r="C287" s="12"/>
     </row>
     <row r="288" spans="1:3" ht="15.75">
       <c r="A288" s="1">
@@ -12284,7 +12291,7 @@
       <c r="B288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="12"/>
+      <c r="C288" s="13"/>
     </row>
     <row r="289" spans="1:3" ht="15.75">
       <c r="A289" s="1">
@@ -12293,7 +12300,7 @@
       <c r="B289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="10">
+      <c r="C289" s="11">
         <v>45080</v>
       </c>
     </row>
@@ -12304,7 +12311,7 @@
       <c r="B290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="11"/>
+      <c r="C290" s="12"/>
     </row>
     <row r="291" spans="1:3" ht="15.75">
       <c r="A291" s="1">
@@ -12313,7 +12320,7 @@
       <c r="B291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="12"/>
+      <c r="C291" s="13"/>
     </row>
     <row r="292" spans="1:3" ht="15.75">
       <c r="A292" s="1">
@@ -12322,7 +12329,7 @@
       <c r="B292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="10">
+      <c r="C292" s="11">
         <v>45081</v>
       </c>
     </row>
@@ -12333,7 +12340,7 @@
       <c r="B293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C293" s="11"/>
+      <c r="C293" s="12"/>
     </row>
     <row r="294" spans="1:3" ht="15.75">
       <c r="A294" s="1">
@@ -12342,7 +12349,7 @@
       <c r="B294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="12"/>
+      <c r="C294" s="13"/>
     </row>
     <row r="295" spans="1:3" ht="15.75">
       <c r="A295" s="1">
@@ -12351,7 +12358,7 @@
       <c r="B295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="10">
+      <c r="C295" s="11">
         <v>45082</v>
       </c>
     </row>
@@ -12362,7 +12369,7 @@
       <c r="B296" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="11"/>
+      <c r="C296" s="12"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="1">
@@ -12371,7 +12378,7 @@
       <c r="B297" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="12"/>
+      <c r="C297" s="13"/>
     </row>
     <row r="298" spans="1:3" ht="15.75">
       <c r="A298" s="1">
@@ -12380,7 +12387,7 @@
       <c r="B298" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="10">
+      <c r="C298" s="11">
         <v>45083</v>
       </c>
     </row>
@@ -12391,7 +12398,7 @@
       <c r="B299" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="11"/>
+      <c r="C299" s="12"/>
     </row>
     <row r="300" spans="1:3" ht="15.75">
       <c r="A300" s="1">
@@ -12400,7 +12407,7 @@
       <c r="B300" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="12"/>
+      <c r="C300" s="13"/>
     </row>
     <row r="301" spans="1:3" ht="15.75">
       <c r="A301" s="1">
@@ -12409,7 +12416,9 @@
       <c r="B301" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C301" s="1"/>
+      <c r="C301" s="11">
+        <v>45084</v>
+      </c>
     </row>
     <row r="302" spans="1:3" ht="15.75">
       <c r="A302" s="1">
@@ -12418,7 +12427,7 @@
       <c r="B302" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="1"/>
+      <c r="C302" s="12"/>
     </row>
     <row r="303" spans="1:3" ht="15.75">
       <c r="A303" s="1">
@@ -12427,7 +12436,7 @@
       <c r="B303" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C303" s="1"/>
+      <c r="C303" s="13"/>
     </row>
     <row r="304" spans="1:3" ht="15.75">
       <c r="A304" s="1">
@@ -12436,7 +12445,9 @@
       <c r="B304" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C304" s="1"/>
+      <c r="C304" s="11">
+        <v>45085</v>
+      </c>
     </row>
     <row r="305" spans="1:3" ht="15.75">
       <c r="A305" s="1">
@@ -12445,7 +12456,7 @@
       <c r="B305" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C305" s="1"/>
+      <c r="C305" s="12"/>
     </row>
     <row r="306" spans="1:3" ht="15.75">
       <c r="A306" s="1">
@@ -12454,7 +12465,7 @@
       <c r="B306" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C306" s="1"/>
+      <c r="C306" s="13"/>
     </row>
     <row r="307" spans="1:3" ht="15.75">
       <c r="A307" s="1">
@@ -12463,7 +12474,9 @@
       <c r="B307" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C307" s="1"/>
+      <c r="C307" s="11">
+        <v>45086</v>
+      </c>
     </row>
     <row r="308" spans="1:3" ht="15.75">
       <c r="A308" s="1">
@@ -12472,7 +12485,7 @@
       <c r="B308" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C308" s="1"/>
+      <c r="C308" s="12"/>
     </row>
     <row r="309" spans="1:3" ht="15.75">
       <c r="A309" s="1">
@@ -12481,7 +12494,7 @@
       <c r="B309" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C309" s="1"/>
+      <c r="C309" s="13"/>
     </row>
     <row r="310" spans="1:3" ht="15.75">
       <c r="A310" s="1">
@@ -12490,7 +12503,9 @@
       <c r="B310" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C310" s="1"/>
+      <c r="C310" s="11">
+        <v>45087</v>
+      </c>
     </row>
     <row r="311" spans="1:3" ht="15.75">
       <c r="A311" s="1">
@@ -12499,7 +12514,7 @@
       <c r="B311" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C311" s="1"/>
+      <c r="C311" s="12"/>
     </row>
     <row r="312" spans="1:3" ht="15.75">
       <c r="A312" s="1">
@@ -12508,7 +12523,7 @@
       <c r="B312" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C312" s="1"/>
+      <c r="C312" s="13"/>
     </row>
     <row r="313" spans="1:3" ht="15.75">
       <c r="A313" s="1">
@@ -12517,7 +12532,9 @@
       <c r="B313" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C313" s="1"/>
+      <c r="C313" s="11">
+        <v>45088</v>
+      </c>
     </row>
     <row r="314" spans="1:3" ht="15.75">
       <c r="A314" s="1">
@@ -12526,7 +12543,7 @@
       <c r="B314" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C314" s="1"/>
+      <c r="C314" s="12"/>
     </row>
     <row r="315" spans="1:3" ht="15.75">
       <c r="A315" s="1">
@@ -12535,7 +12552,7 @@
       <c r="B315" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C315" s="1"/>
+      <c r="C315" s="13"/>
     </row>
     <row r="316" spans="1:3" ht="15.75">
       <c r="A316" s="1">
@@ -12544,7 +12561,9 @@
       <c r="B316" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C316" s="1"/>
+      <c r="C316" s="11">
+        <v>45089</v>
+      </c>
     </row>
     <row r="317" spans="1:3" ht="15.75">
       <c r="A317" s="1">
@@ -12553,7 +12572,7 @@
       <c r="B317" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C317" s="1"/>
+      <c r="C317" s="12"/>
     </row>
     <row r="318" spans="1:3" ht="15.75">
       <c r="A318" s="1">
@@ -12562,7 +12581,7 @@
       <c r="B318" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C318" s="1"/>
+      <c r="C318" s="13"/>
     </row>
     <row r="319" spans="1:3" ht="15.75">
       <c r="A319" s="1">
@@ -12571,7 +12590,9 @@
       <c r="B319" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="1"/>
+      <c r="C319" s="11">
+        <v>45090</v>
+      </c>
     </row>
     <row r="320" spans="1:3" ht="15.75">
       <c r="A320" s="1">
@@ -12580,7 +12601,7 @@
       <c r="B320" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="1"/>
+      <c r="C320" s="12"/>
     </row>
     <row r="321" spans="1:3" ht="15.75">
       <c r="A321" s="1">
@@ -12589,7 +12610,7 @@
       <c r="B321" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C321" s="1"/>
+      <c r="C321" s="13"/>
     </row>
     <row r="322" spans="1:3" ht="15.75">
       <c r="A322" s="1">
@@ -12598,7 +12619,9 @@
       <c r="B322" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C322" s="1"/>
+      <c r="C322" s="11">
+        <v>45091</v>
+      </c>
     </row>
     <row r="323" spans="1:3" ht="15.75">
       <c r="A323" s="1">
@@ -12607,7 +12630,7 @@
       <c r="B323" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C323" s="1"/>
+      <c r="C323" s="12"/>
     </row>
     <row r="324" spans="1:3" ht="15.75">
       <c r="A324" s="1">
@@ -12616,7 +12639,7 @@
       <c r="B324" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="1"/>
+      <c r="C324" s="13"/>
     </row>
     <row r="325" spans="1:3" ht="15.75">
       <c r="A325" s="1">
@@ -12625,7 +12648,9 @@
       <c r="B325" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="1"/>
+      <c r="C325" s="11">
+        <v>45092</v>
+      </c>
     </row>
     <row r="326" spans="1:3" ht="15.75">
       <c r="A326" s="1">
@@ -12634,7 +12659,7 @@
       <c r="B326" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="1"/>
+      <c r="C326" s="12"/>
     </row>
     <row r="327" spans="1:3" ht="15.75">
       <c r="A327" s="1">
@@ -12643,7 +12668,7 @@
       <c r="B327" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="1"/>
+      <c r="C327" s="13"/>
     </row>
     <row r="328" spans="1:3" ht="15.75">
       <c r="A328" s="1">
@@ -12652,7 +12677,9 @@
       <c r="B328" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="1"/>
+      <c r="C328" s="11">
+        <v>45093</v>
+      </c>
     </row>
     <row r="329" spans="1:3" ht="15.75">
       <c r="A329" s="1">
@@ -12661,7 +12688,7 @@
       <c r="B329" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="1"/>
+      <c r="C329" s="12"/>
     </row>
     <row r="330" spans="1:3" ht="15.75">
       <c r="A330" s="1">
@@ -12670,7 +12697,7 @@
       <c r="B330" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C330" s="1"/>
+      <c r="C330" s="13"/>
     </row>
     <row r="331" spans="1:3" ht="15.75">
       <c r="A331" s="1">
@@ -12679,7 +12706,9 @@
       <c r="B331" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C331" s="1"/>
+      <c r="C331" s="11">
+        <v>45094</v>
+      </c>
     </row>
     <row r="332" spans="1:3" ht="15.75">
       <c r="A332" s="1">
@@ -12688,7 +12717,7 @@
       <c r="B332" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C332" s="1"/>
+      <c r="C332" s="12"/>
     </row>
     <row r="333" spans="1:3" ht="15.75">
       <c r="A333" s="1">
@@ -12697,7 +12726,7 @@
       <c r="B333" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="1"/>
+      <c r="C333" s="13"/>
     </row>
     <row r="334" spans="1:3" ht="15.75">
       <c r="A334" s="1">
@@ -12706,7 +12735,9 @@
       <c r="B334" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C334" s="1"/>
+      <c r="C334" s="11">
+        <v>45095</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="15.75">
       <c r="A335" s="1">
@@ -12715,7 +12746,7 @@
       <c r="B335" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="1"/>
+      <c r="C335" s="12"/>
     </row>
     <row r="336" spans="1:3" ht="15.75">
       <c r="A336" s="1">
@@ -12724,7 +12755,7 @@
       <c r="B336" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="1"/>
+      <c r="C336" s="13"/>
     </row>
     <row r="337" spans="1:3" ht="15.75">
       <c r="A337" s="1">
@@ -12733,7 +12764,9 @@
       <c r="B337" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C337" s="1"/>
+      <c r="C337" s="11">
+        <v>45096</v>
+      </c>
     </row>
     <row r="338" spans="1:3" ht="15.75">
       <c r="A338" s="1">
@@ -12742,7 +12775,7 @@
       <c r="B338" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C338" s="1"/>
+      <c r="C338" s="12"/>
     </row>
     <row r="339" spans="1:3" ht="15.75">
       <c r="A339" s="1">
@@ -12751,7 +12784,7 @@
       <c r="B339" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C339" s="1"/>
+      <c r="C339" s="13"/>
     </row>
     <row r="340" spans="1:3" ht="15.75">
       <c r="A340" s="1">
@@ -12760,7 +12793,9 @@
       <c r="B340" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C340" s="1"/>
+      <c r="C340" s="11">
+        <v>45097</v>
+      </c>
     </row>
     <row r="341" spans="1:3" ht="15.75">
       <c r="A341" s="1">
@@ -12769,7 +12804,7 @@
       <c r="B341" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C341" s="1"/>
+      <c r="C341" s="12"/>
     </row>
     <row r="342" spans="1:3" ht="15.75">
       <c r="A342" s="1">
@@ -12778,7 +12813,7 @@
       <c r="B342" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C342" s="1"/>
+      <c r="C342" s="13"/>
     </row>
     <row r="343" spans="1:3" ht="15.75">
       <c r="A343" s="1">
@@ -12787,7 +12822,9 @@
       <c r="B343" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C343" s="1"/>
+      <c r="C343" s="11">
+        <v>45098</v>
+      </c>
     </row>
     <row r="344" spans="1:3" ht="15.75">
       <c r="A344" s="1">
@@ -12796,7 +12833,7 @@
       <c r="B344" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="1"/>
+      <c r="C344" s="12"/>
     </row>
     <row r="345" spans="1:3" ht="15.75">
       <c r="A345" s="1">
@@ -12805,7 +12842,7 @@
       <c r="B345" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C345" s="1"/>
+      <c r="C345" s="13"/>
     </row>
     <row r="346" spans="1:3" ht="15.75">
       <c r="A346" s="1">
@@ -12814,7 +12851,9 @@
       <c r="B346" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="1"/>
+      <c r="C346" s="11">
+        <v>45099</v>
+      </c>
     </row>
     <row r="347" spans="1:3" ht="15.75">
       <c r="A347" s="1">
@@ -12823,7 +12862,7 @@
       <c r="B347" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="1"/>
+      <c r="C347" s="12"/>
     </row>
     <row r="348" spans="1:3" ht="15.75">
       <c r="A348" s="1">
@@ -12832,7 +12871,7 @@
       <c r="B348" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C348" s="1"/>
+      <c r="C348" s="13"/>
     </row>
     <row r="349" spans="1:3" ht="15.75">
       <c r="A349" s="1">
@@ -12841,7 +12880,9 @@
       <c r="B349" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C349" s="1"/>
+      <c r="C349" s="11">
+        <v>45100</v>
+      </c>
     </row>
     <row r="350" spans="1:3" ht="15.75">
       <c r="A350" s="1">
@@ -12850,7 +12891,7 @@
       <c r="B350" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="1"/>
+      <c r="C350" s="12"/>
     </row>
     <row r="351" spans="1:3" ht="15.75">
       <c r="A351" s="1">
@@ -12859,7 +12900,7 @@
       <c r="B351" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C351" s="1"/>
+      <c r="C351" s="13"/>
     </row>
     <row r="352" spans="1:3" ht="15.75">
       <c r="A352" s="1">
@@ -12868,7 +12909,9 @@
       <c r="B352" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="1"/>
+      <c r="C352" s="11">
+        <v>45101</v>
+      </c>
     </row>
     <row r="353" spans="1:3" ht="15.75">
       <c r="A353" s="1">
@@ -12877,7 +12920,7 @@
       <c r="B353" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="1"/>
+      <c r="C353" s="12"/>
     </row>
     <row r="354" spans="1:3" ht="15.75">
       <c r="A354" s="1">
@@ -12886,7 +12929,7 @@
       <c r="B354" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C354" s="1"/>
+      <c r="C354" s="13"/>
     </row>
     <row r="355" spans="1:3" ht="15.75">
       <c r="A355" s="1">
@@ -12895,7 +12938,9 @@
       <c r="B355" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C355" s="1"/>
+      <c r="C355" s="11">
+        <v>45102</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="15.75">
       <c r="A356" s="1">
@@ -12904,7 +12949,7 @@
       <c r="B356" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C356" s="1"/>
+      <c r="C356" s="12"/>
     </row>
     <row r="357" spans="1:3" ht="15.75">
       <c r="A357" s="1">
@@ -12913,7 +12958,7 @@
       <c r="B357" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C357" s="1"/>
+      <c r="C357" s="13"/>
     </row>
     <row r="358" spans="1:3" ht="15.75">
       <c r="A358" s="1">
@@ -12922,7 +12967,9 @@
       <c r="B358" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C358" s="1"/>
+      <c r="C358" s="11">
+        <v>45103</v>
+      </c>
     </row>
     <row r="359" spans="1:3" ht="15.75">
       <c r="A359" s="1">
@@ -12931,7 +12978,7 @@
       <c r="B359" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C359" s="1"/>
+      <c r="C359" s="12"/>
     </row>
     <row r="360" spans="1:3" ht="15.75">
       <c r="A360" s="1">
@@ -12940,7 +12987,7 @@
       <c r="B360" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C360" s="1"/>
+      <c r="C360" s="13"/>
     </row>
     <row r="361" spans="1:3" ht="15.75">
       <c r="A361" s="1">
@@ -12949,7 +12996,9 @@
       <c r="B361" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C361" s="1"/>
+      <c r="C361" s="11">
+        <v>45104</v>
+      </c>
     </row>
     <row r="362" spans="1:3" ht="15.75">
       <c r="A362" s="1">
@@ -12958,7 +13007,7 @@
       <c r="B362" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C362" s="1"/>
+      <c r="C362" s="12"/>
     </row>
     <row r="363" spans="1:3" ht="15.75">
       <c r="A363" s="1">
@@ -12967,7 +13016,7 @@
       <c r="B363" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C363" s="1"/>
+      <c r="C363" s="13"/>
     </row>
     <row r="364" spans="1:3" ht="15.75">
       <c r="A364" s="1">
@@ -12976,7 +13025,9 @@
       <c r="B364" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C364" s="1"/>
+      <c r="C364" s="11">
+        <v>45105</v>
+      </c>
     </row>
     <row r="365" spans="1:3" ht="15.75">
       <c r="A365" s="1">
@@ -12985,7 +13036,7 @@
       <c r="B365" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C365" s="1"/>
+      <c r="C365" s="12"/>
     </row>
     <row r="366" spans="1:3" ht="15.75">
       <c r="A366" s="1">
@@ -12994,7 +13045,7 @@
       <c r="B366" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C366" s="1"/>
+      <c r="C366" s="13"/>
     </row>
     <row r="367" spans="1:3" ht="15.75">
       <c r="A367" s="1">
@@ -13003,7 +13054,9 @@
       <c r="B367" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C367" s="1"/>
+      <c r="C367" s="11">
+        <v>45106</v>
+      </c>
     </row>
     <row r="368" spans="1:3" ht="15.75">
       <c r="A368" s="1">
@@ -13012,7 +13065,7 @@
       <c r="B368" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C368" s="1"/>
+      <c r="C368" s="12"/>
     </row>
     <row r="369" spans="1:3" ht="15.75">
       <c r="A369" s="1">
@@ -13021,7 +13074,7 @@
       <c r="B369" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C369" s="1"/>
+      <c r="C369" s="13"/>
     </row>
     <row r="370" spans="1:3" ht="15.75">
       <c r="A370" s="1">
@@ -13030,7 +13083,9 @@
       <c r="B370" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C370" s="1"/>
+      <c r="C370" s="11">
+        <v>45107</v>
+      </c>
     </row>
     <row r="371" spans="1:3" ht="15.75">
       <c r="A371" s="1">
@@ -13039,7 +13094,7 @@
       <c r="B371" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C371" s="1"/>
+      <c r="C371" s="12"/>
     </row>
     <row r="372" spans="1:3" ht="15.75">
       <c r="A372" s="1">
@@ -13048,7 +13103,7 @@
       <c r="B372" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C372" s="1"/>
+      <c r="C372" s="13"/>
     </row>
     <row r="373" spans="1:3" ht="15.75">
       <c r="A373" s="1">
@@ -36712,53 +36767,48 @@
       <c r="C3001" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="C238:C240"/>
-    <mergeCell ref="C241:C243"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
+  <mergeCells count="103">
+    <mergeCell ref="C361:C363"/>
+    <mergeCell ref="C364:C366"/>
+    <mergeCell ref="C367:C369"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="C352:C354"/>
+    <mergeCell ref="C355:C357"/>
+    <mergeCell ref="C358:C360"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C319:C321"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="C262:C264"/>
     <mergeCell ref="C219:C222"/>
     <mergeCell ref="C204:C206"/>
     <mergeCell ref="C207:C209"/>
@@ -36775,23 +36825,52 @@
     <mergeCell ref="C195:C197"/>
     <mergeCell ref="C213:C215"/>
     <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C238:C240"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/arquivo/top3000.xlsx
+++ b/arquivo/top3000.xlsx
@@ -868,7 +868,7 @@
     <t xml:space="preserve">best</t>
   </si>
   <si>
-    <t xml:space="preserve">Retornando dia 13-12</t>
+    <t xml:space="preserve">Retornando dia 13-12-2023</t>
   </si>
   <si>
     <t xml:space="preserve">bet</t>
@@ -9552,7 +9552,7 @@
   <dimension ref="A1:I3001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A261" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C277" activeCellId="0" sqref="C277"/>
+      <selection pane="topLeft" activeCell="D280" activeCellId="0" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
